--- a/战场伤害计算器/通用武器/S6战场武器.xlsx
+++ b/战场伤害计算器/通用武器/S6战场武器.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\战场伤害计算器\通用武器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0937E322-A43C-401A-A551-FD93950DE846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636243C6-FF4F-45B3-B442-8C70A721E350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{40E5A0C5-F1D4-4373-839B-1FD296B7D6C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
   <si>
     <t>鉴于官方存在改内容不写入公告的行为，当游戏内数据与表格记录冲突时，以游戏内为准，并私聊我们更新表格数据</t>
   </si>
@@ -232,9 +232,6 @@
     <t>M4A1突击步枪</t>
   </si>
   <si>
-    <t>冲锋枪</t>
-  </si>
-  <si>
     <t>QCQ171冲锋枪</t>
   </si>
   <si>
@@ -468,6 +465,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>冲锋枪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBJ201轻机枪(短枪管)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR-25射手步枪(短枪管)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -571,8 +580,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,9 +593,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,13 +930,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04015EB4-C098-4FF8-BC72-5F39F28620E1}">
-  <dimension ref="A1:AE213"/>
+  <dimension ref="A1:AE221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="S51" sqref="S51:Z51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.77734375" defaultRowHeight="18" customHeight="1"/>
@@ -1057,92 +1066,36 @@
       </c>
     </row>
     <row r="3" spans="1:31" ht="18" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:31" ht="18" customHeight="1">
+      <c r="B4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>625</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G24" si="0">ROUND(60000/F3,2)</f>
-        <v>96</v>
-      </c>
-      <c r="H3" s="5">
-        <v>525</v>
-      </c>
-      <c r="I3" s="2">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J24" si="1">ROUNDUP(100/I3,0)</f>
-        <v>4</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K24" si="2">E3+(J3-1)*G3</f>
-        <v>288</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="S3" s="2">
-        <v>40</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="U3" s="5">
-        <v>50</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="W3" s="2">
-        <v>70</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>90</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="18" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
@@ -1150,99 +1103,99 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
+        <v>625</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G25" si="0">ROUND(60000/F4,2)</f>
+        <v>96</v>
+      </c>
+      <c r="H4" s="5">
+        <v>525</v>
+      </c>
+      <c r="I4" s="2">
+        <v>26</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J25" si="1">ROUNDUP(100/I4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K25" si="2">E4+(J4-1)*G4</f>
+        <v>288</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="2">
+        <v>40</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="U4" s="5">
+        <v>50</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="W4" s="2">
+        <v>70</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="18" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>740</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>81.08</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H5" s="5">
         <v>500</v>
-      </c>
-      <c r="I4" s="5">
-        <v>24</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="2"/>
-        <v>324.32</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="S4" s="5">
-        <v>25</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="U4" s="5">
-        <v>35</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="W4" s="5">
-        <v>45</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="18" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>780</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>76.92</v>
-      </c>
-      <c r="H5" s="5">
-        <v>450</v>
       </c>
       <c r="I5" s="5">
         <v>24</v>
@@ -1253,16 +1206,16 @@
       </c>
       <c r="K5" s="5">
         <f t="shared" si="2"/>
-        <v>307.68</v>
+        <v>324.32</v>
       </c>
       <c r="L5" s="5">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="M5" s="5">
         <v>1</v>
       </c>
       <c r="N5" s="5">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O5" s="5">
         <v>0.9</v>
@@ -1277,34 +1230,34 @@
         <v>0.9</v>
       </c>
       <c r="S5" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T5" s="5">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="U5" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V5" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="W5" s="5">
+        <v>45</v>
+      </c>
+      <c r="X5" s="5">
         <v>0.65</v>
       </c>
-      <c r="W5" s="5">
-        <v>50</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="Y5" s="5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="18" customHeight="1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -1316,25 +1269,25 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>706</v>
+        <v>780</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>84.99</v>
+        <v>76.92</v>
       </c>
       <c r="H6" s="5">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="I6" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="2"/>
-        <v>254.96999999999997</v>
+        <v>307.68</v>
       </c>
       <c r="L6" s="5">
         <v>1.9</v>
@@ -1343,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="5">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O6" s="5">
         <v>0.9</v>
@@ -1358,34 +1311,34 @@
         <v>0.9</v>
       </c>
       <c r="S6" s="5">
+        <v>20</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="U6" s="5">
         <v>30</v>
       </c>
-      <c r="T6" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="U6" s="5">
-        <v>40</v>
-      </c>
       <c r="V6" s="5">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="W6" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X6" s="5">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y6" s="5">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z6" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="18" customHeight="1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
@@ -1397,11 +1350,11 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>759</v>
+        <v>706</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>79.05</v>
+        <v>84.99</v>
       </c>
       <c r="H7" s="5">
         <v>550</v>
@@ -1415,7 +1368,7 @@
       </c>
       <c r="K7" s="5">
         <f t="shared" si="2"/>
-        <v>237.14999999999998</v>
+        <v>254.96999999999997</v>
       </c>
       <c r="L7" s="5">
         <v>1.9</v>
@@ -1439,38 +1392,34 @@
         <v>0.9</v>
       </c>
       <c r="S7" s="5">
-        <f>S6*0.67</f>
-        <v>20.100000000000001</v>
+        <v>30</v>
       </c>
       <c r="T7" s="5">
         <v>0.85</v>
       </c>
       <c r="U7" s="5">
-        <f>U6*0.67</f>
-        <v>26.8</v>
+        <v>40</v>
       </c>
       <c r="V7" s="5">
         <v>0.75</v>
       </c>
       <c r="W7" s="5">
-        <f>W6*0.67</f>
-        <v>40.200000000000003</v>
+        <v>60</v>
       </c>
       <c r="X7" s="5">
         <v>0.65</v>
       </c>
       <c r="Y7" s="5">
-        <f>Y6*0.67</f>
-        <v>53.6</v>
+        <v>80</v>
       </c>
       <c r="Z7" s="5">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="18" customHeight="1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -1482,11 +1431,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>660</v>
+        <v>759</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>90.91</v>
+        <v>79.05</v>
       </c>
       <c r="H8" s="5">
         <v>550</v>
@@ -1500,7 +1449,7 @@
       </c>
       <c r="K8" s="5">
         <f t="shared" si="2"/>
-        <v>272.73</v>
+        <v>237.14999999999998</v>
       </c>
       <c r="L8" s="5">
         <v>1.9</v>
@@ -1524,38 +1473,38 @@
         <v>0.9</v>
       </c>
       <c r="S8" s="5">
-        <f>S6*1.15</f>
-        <v>34.5</v>
+        <f>S7*0.67</f>
+        <v>20.100000000000001</v>
       </c>
       <c r="T8" s="5">
         <v>0.85</v>
       </c>
       <c r="U8" s="5">
-        <f>U6*1.15</f>
-        <v>46</v>
+        <f>U7*0.67</f>
+        <v>26.8</v>
       </c>
       <c r="V8" s="5">
         <v>0.75</v>
       </c>
       <c r="W8" s="5">
-        <f>W6*1.15</f>
-        <v>69</v>
+        <f>W7*0.67</f>
+        <v>40.200000000000003</v>
       </c>
       <c r="X8" s="5">
         <v>0.65</v>
       </c>
       <c r="Y8" s="5">
-        <f>Y6*1.15</f>
-        <v>92</v>
+        <f>Y7*0.67</f>
+        <v>53.6</v>
       </c>
       <c r="Z8" s="5">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="18" customHeight="1">
-      <c r="A9" s="6"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -1567,25 +1516,25 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>972</v>
+        <v>660</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>61.73</v>
+        <v>90.91</v>
       </c>
       <c r="H9" s="5">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="I9" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="2"/>
-        <v>246.92</v>
+        <v>272.73</v>
       </c>
       <c r="L9" s="5">
         <v>1.9</v>
@@ -1597,46 +1546,50 @@
         <v>1</v>
       </c>
       <c r="O9" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P9" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q9" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="R9" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S9" s="5">
-        <v>20</v>
+        <f>S7*1.15</f>
+        <v>34.5</v>
       </c>
       <c r="T9" s="5">
         <v>0.85</v>
       </c>
       <c r="U9" s="5">
-        <v>30</v>
+        <f>U7*1.15</f>
+        <v>46</v>
       </c>
       <c r="V9" s="5">
         <v>0.75</v>
       </c>
       <c r="W9" s="5">
-        <v>50</v>
+        <f>W7*1.15</f>
+        <v>69</v>
       </c>
       <c r="X9" s="5">
         <v>0.65</v>
       </c>
       <c r="Y9" s="5">
-        <v>70</v>
+        <f>Y7*1.15</f>
+        <v>92</v>
       </c>
       <c r="Z9" s="5">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="18" customHeight="1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -1648,25 +1601,25 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>632</v>
+        <v>972</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>94.94</v>
+        <v>61.73</v>
       </c>
       <c r="H10" s="5">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="I10" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="2"/>
-        <v>284.82</v>
+        <v>246.92</v>
       </c>
       <c r="L10" s="5">
         <v>1.9</v>
@@ -1675,49 +1628,49 @@
         <v>1</v>
       </c>
       <c r="N10" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O10" s="5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P10" s="5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Q10" s="5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="R10" s="5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="S10" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T10" s="5">
         <v>0.85</v>
       </c>
       <c r="U10" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V10" s="5">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="W10" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X10" s="5">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="Y10" s="5">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z10" s="5">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="18" customHeight="1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -1739,7 +1692,7 @@
         <v>550</v>
       </c>
       <c r="I11" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="1"/>
@@ -1756,19 +1709,19 @@
         <v>1</v>
       </c>
       <c r="N11" s="5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O11" s="5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P11" s="5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q11" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="R11" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S11" s="5">
         <v>30</v>
@@ -1786,19 +1739,19 @@
         <v>60</v>
       </c>
       <c r="X11" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="Y11" s="5">
         <v>80</v>
       </c>
       <c r="Z11" s="5">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="18" customHeight="1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -1810,17 +1763,17 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>533</v>
+        <v>632</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>112.57</v>
+        <v>94.94</v>
       </c>
       <c r="H12" s="5">
-        <v>630</v>
+        <v>550</v>
       </c>
       <c r="I12" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="1"/>
@@ -1828,10 +1781,10 @@
       </c>
       <c r="K12" s="5">
         <f t="shared" si="2"/>
-        <v>337.71</v>
+        <v>284.82</v>
       </c>
       <c r="L12" s="5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="M12" s="5">
         <v>1</v>
@@ -1846,40 +1799,40 @@
         <v>1</v>
       </c>
       <c r="Q12" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R12" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S12" s="5">
+        <v>30</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="U12" s="5">
         <v>40</v>
       </c>
-      <c r="T12" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="U12" s="5">
-        <v>50</v>
-      </c>
       <c r="V12" s="5">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="W12" s="5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="X12" s="5">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y12" s="5">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Z12" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="18" customHeight="1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -1891,17 +1844,17 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>102.56</v>
+        <v>112.57</v>
       </c>
       <c r="H13" s="5">
         <v>630</v>
       </c>
       <c r="I13" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="1"/>
@@ -1909,10 +1862,10 @@
       </c>
       <c r="K13" s="5">
         <f t="shared" si="2"/>
-        <v>307.68</v>
+        <v>337.71</v>
       </c>
       <c r="L13" s="5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="M13" s="5">
         <v>1</v>
@@ -1930,19 +1883,19 @@
         <v>1</v>
       </c>
       <c r="R13" s="5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S13" s="5">
         <v>40</v>
       </c>
       <c r="T13" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="U13" s="5">
         <v>50</v>
       </c>
       <c r="V13" s="5">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="W13" s="5">
         <v>70</v>
@@ -1958,12 +1911,12 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="18" customHeight="1">
-      <c r="A14" s="6"/>
+      <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -1972,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>735</v>
+        <v>585</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>81.63</v>
+        <v>102.56</v>
       </c>
       <c r="H14" s="5">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="I14" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" si="2"/>
-        <v>326.52</v>
+        <v>307.68</v>
       </c>
       <c r="L14" s="5">
         <v>1.9</v>
@@ -2011,40 +1964,40 @@
         <v>1</v>
       </c>
       <c r="R14" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S14" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T14" s="5">
         <v>0.8</v>
       </c>
       <c r="U14" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V14" s="5">
         <v>0.7</v>
       </c>
       <c r="W14" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X14" s="5">
         <v>0.6</v>
       </c>
       <c r="Y14" s="5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z14" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="18" customHeight="1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -2053,25 +2006,25 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>906</v>
+        <v>735</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>66.23</v>
+        <v>81.63</v>
       </c>
       <c r="H15" s="5">
         <v>550</v>
       </c>
       <c r="I15" s="5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="2"/>
-        <v>331.15000000000003</v>
+        <v>326.52</v>
       </c>
       <c r="L15" s="5">
         <v>1.9</v>
@@ -2083,49 +2036,49 @@
         <v>1</v>
       </c>
       <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5">
+        <v>30</v>
+      </c>
+      <c r="T15" s="5">
         <v>0.8</v>
       </c>
-      <c r="P15" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="R15" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="S15" s="5">
+      <c r="U15" s="5">
         <v>40</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="U15" s="5">
-        <v>50</v>
       </c>
       <c r="V15" s="5">
         <v>0.7</v>
       </c>
       <c r="W15" s="5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="X15" s="5">
         <v>0.6</v>
       </c>
       <c r="Y15" s="5">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Z15" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="18" customHeight="1">
-      <c r="A16" s="6"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -2134,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>649</v>
+        <v>906</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>92.45</v>
+        <v>66.23</v>
       </c>
       <c r="H16" s="5">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="I16" s="5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="2"/>
-        <v>277.35000000000002</v>
+        <v>331.15000000000003</v>
       </c>
       <c r="L16" s="5">
         <v>1.9</v>
@@ -2164,22 +2117,22 @@
         <v>1</v>
       </c>
       <c r="O16" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P16" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q16" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R16" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S16" s="5">
         <v>40</v>
       </c>
       <c r="T16" s="5">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="U16" s="5">
         <v>50</v>
@@ -2197,13 +2150,13 @@
         <v>90</v>
       </c>
       <c r="Z16" s="5">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="18" customHeight="1">
-      <c r="A17" s="6"/>
+      <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
@@ -2215,28 +2168,28 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>88.37</v>
+        <v>92.45</v>
       </c>
       <c r="H17" s="5">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="I17" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" si="2"/>
-        <v>353.48</v>
+        <v>277.35000000000002</v>
       </c>
       <c r="L17" s="5">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="M17" s="5">
         <v>1</v>
@@ -2260,31 +2213,31 @@
         <v>40</v>
       </c>
       <c r="T17" s="5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="U17" s="5">
         <v>50</v>
       </c>
       <c r="V17" s="5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="W17" s="5">
         <v>70</v>
       </c>
       <c r="X17" s="5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="Y17" s="5">
         <v>90</v>
       </c>
       <c r="Z17" s="5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="18" customHeight="1">
-      <c r="A18" s="6"/>
+      <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -2296,17 +2249,17 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>880</v>
+        <v>679</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>68.180000000000007</v>
+        <v>88.37</v>
       </c>
       <c r="H18" s="5">
         <v>550</v>
       </c>
       <c r="I18" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" si="1"/>
@@ -2314,10 +2267,10 @@
       </c>
       <c r="K18" s="5">
         <f t="shared" si="2"/>
-        <v>272.72000000000003</v>
+        <v>353.48</v>
       </c>
       <c r="L18" s="5">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="M18" s="5">
         <v>1</v>
@@ -2326,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="O18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>1</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5">
+        <v>40</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U18" s="5">
+        <v>50</v>
+      </c>
+      <c r="V18" s="5">
         <v>0.8</v>
       </c>
-      <c r="P18" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="S18" s="5">
-        <v>20</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="U18" s="5">
-        <v>30</v>
-      </c>
-      <c r="V18" s="5">
+      <c r="W18" s="5">
+        <v>70</v>
+      </c>
+      <c r="X18" s="5">
         <v>0.7</v>
       </c>
-      <c r="W18" s="5">
-        <v>50</v>
-      </c>
-      <c r="X18" s="5">
+      <c r="Y18" s="5">
+        <v>90</v>
+      </c>
+      <c r="Z18" s="5">
         <v>0.6</v>
       </c>
-      <c r="Y18" s="5">
-        <v>70</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>0.55000000000000004</v>
-      </c>
     </row>
     <row r="19" spans="1:31" ht="18" customHeight="1">
-      <c r="A19" s="6"/>
+      <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
@@ -2377,28 +2330,28 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>500</v>
+        <v>880</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="H19" s="5">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="I19" s="5">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>272.72000000000003</v>
       </c>
       <c r="L19" s="5">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="M19" s="5">
         <v>1</v>
@@ -2407,46 +2360,46 @@
         <v>1</v>
       </c>
       <c r="O19" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P19" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q19" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R19" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S19" s="5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="T19" s="5">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="U19" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="V19" s="5">
         <v>0.7</v>
       </c>
       <c r="W19" s="5">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="X19" s="5">
         <v>0.6</v>
       </c>
       <c r="Y19" s="5">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Z19" s="5">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1">
-      <c r="A20" s="6"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
@@ -2458,28 +2411,28 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>112.57</v>
+        <v>120</v>
       </c>
       <c r="H20" s="5">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="I20" s="5">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J20" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" s="5">
         <f t="shared" si="2"/>
-        <v>337.71</v>
+        <v>240</v>
       </c>
       <c r="L20" s="5">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="M20" s="5">
         <v>1</v>
@@ -2500,34 +2453,34 @@
         <v>1</v>
       </c>
       <c r="S20" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T20" s="5">
         <v>0.8</v>
       </c>
       <c r="U20" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V20" s="5">
         <v>0.7</v>
       </c>
       <c r="W20" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X20" s="5">
         <v>0.6</v>
       </c>
       <c r="Y20" s="5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z20" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1">
-      <c r="A21" s="6"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>30</v>
@@ -2539,31 +2492,31 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>679</v>
+        <v>533</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>88.37</v>
+        <v>112.57</v>
       </c>
       <c r="H21" s="5">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="I21" s="5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K21" s="5">
         <f t="shared" si="2"/>
-        <v>353.48</v>
+        <v>337.71</v>
       </c>
       <c r="L21" s="5">
         <v>1.9</v>
       </c>
       <c r="M21" s="5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="N21" s="5">
         <v>1</v>
@@ -2581,34 +2534,34 @@
         <v>1</v>
       </c>
       <c r="S21" s="5">
+        <v>30</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U21" s="5">
         <v>40</v>
-      </c>
-      <c r="T21" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="U21" s="5">
-        <v>50</v>
       </c>
       <c r="V21" s="5">
         <v>0.7</v>
       </c>
       <c r="W21" s="5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="X21" s="5">
         <v>0.6</v>
       </c>
       <c r="Y21" s="5">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Z21" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="18" customHeight="1">
-      <c r="A22" s="6"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>30</v>
@@ -2620,31 +2573,31 @@
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>88.37</v>
       </c>
       <c r="H22" s="5">
         <v>550</v>
       </c>
       <c r="I22" s="5">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J22" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" s="5">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>353.48</v>
       </c>
       <c r="L22" s="5">
         <v>1.9</v>
       </c>
       <c r="M22" s="5">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="N22" s="5">
         <v>1</v>
@@ -2662,34 +2615,34 @@
         <v>1</v>
       </c>
       <c r="S22" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T22" s="5">
         <v>0.85</v>
       </c>
       <c r="U22" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V22" s="5">
         <v>0.7</v>
       </c>
       <c r="W22" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X22" s="5">
         <v>0.6</v>
       </c>
       <c r="Y22" s="5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z22" s="5">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="18" customHeight="1">
-      <c r="A23" s="6"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>30</v>
@@ -2708,8 +2661,7 @@
         <v>100</v>
       </c>
       <c r="H23" s="5">
-        <f>H22*1.06</f>
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="I23" s="5">
         <v>26</v>
@@ -2723,10 +2675,10 @@
         <v>300</v>
       </c>
       <c r="L23" s="5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="M23" s="5">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="N23" s="5">
         <v>1</v>
@@ -2744,38 +2696,34 @@
         <v>1</v>
       </c>
       <c r="S23" s="5">
-        <f>S22*1.06</f>
-        <v>31.8</v>
+        <v>30</v>
       </c>
       <c r="T23" s="5">
         <v>0.85</v>
       </c>
       <c r="U23" s="5">
-        <f>U22*1.06</f>
-        <v>42.400000000000006</v>
+        <v>40</v>
       </c>
       <c r="V23" s="5">
         <v>0.7</v>
       </c>
       <c r="W23" s="5">
-        <f>W22*1.06</f>
-        <v>63.6</v>
+        <v>60</v>
       </c>
       <c r="X23" s="5">
         <v>0.6</v>
       </c>
       <c r="Y23" s="5">
-        <f>Y22*1.06</f>
-        <v>84.800000000000011</v>
+        <v>80</v>
       </c>
       <c r="Z23" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="18" customHeight="1">
-      <c r="A24" s="6"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>30</v>
@@ -2787,28 +2735,29 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H24" s="5">
-        <v>550</v>
+        <f>H23*1.06</f>
+        <v>583</v>
       </c>
       <c r="I24" s="5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="L24" s="5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="M24" s="5">
         <v>1</v>
@@ -2829,417 +2778,340 @@
         <v>1</v>
       </c>
       <c r="S24" s="5">
-        <v>25</v>
+        <f>S23*1.06</f>
+        <v>31.8</v>
       </c>
       <c r="T24" s="5">
         <v>0.85</v>
       </c>
       <c r="U24" s="5">
+        <f>U23*1.06</f>
+        <v>42.400000000000006</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W24" s="5">
+        <f>W23*1.06</f>
+        <v>63.6</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y24" s="5">
+        <f>Y23*1.06</f>
+        <v>84.800000000000011</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="18" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>800</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="H25" s="5">
+        <v>550</v>
+      </c>
+      <c r="I25" s="5">
+        <v>20</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>1</v>
+      </c>
+      <c r="R25" s="5">
+        <v>1</v>
+      </c>
+      <c r="S25" s="5">
+        <v>25</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="U25" s="5">
         <v>40</v>
       </c>
-      <c r="V24" s="5">
+      <c r="V25" s="5">
         <v>0.75</v>
       </c>
-      <c r="W24" s="5">
+      <c r="W25" s="5">
         <v>60</v>
       </c>
-      <c r="X24" s="5">
+      <c r="X25" s="5">
         <v>0.65</v>
       </c>
-      <c r="Y24" s="5">
+      <c r="Y25" s="5">
         <v>80</v>
       </c>
-      <c r="Z24" s="5">
+      <c r="Z25" s="5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-    </row>
     <row r="26" spans="1:31" ht="18" customHeight="1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+    </row>
+    <row r="27" spans="1:31" ht="18" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:31" ht="18" customHeight="1">
+      <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>763</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ref="G28:G30" si="3">ROUND(60000/F28,2)</f>
+        <v>78.64</v>
+      </c>
+      <c r="H28" s="5">
+        <v>400</v>
+      </c>
+      <c r="I28" s="5">
+        <v>25</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" ref="J28:J30" si="4">ROUNDUP(100/I28,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" ref="K28:K30" si="5">E28+(J28-1)*G28</f>
+        <v>235.92000000000002</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="S28" s="5">
+        <v>18</v>
+      </c>
+      <c r="T28" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U28" s="5">
+        <v>28</v>
+      </c>
+      <c r="V28" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W28" s="5">
+        <v>38</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>48</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="18" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
         <v>0</v>
       </c>
-      <c r="F26" s="2">
-        <v>763</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" ref="G26:G37" si="3">ROUND(60000/F26,2)</f>
-        <v>78.64</v>
-      </c>
-      <c r="H26" s="5">
-        <v>400</v>
-      </c>
-      <c r="I26" s="5">
-        <v>26</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" ref="J26:J37" si="4">ROUNDUP(100/I26,0)</f>
-        <v>4</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" ref="K26:K37" si="5">E26+(J26-1)*G26</f>
-        <v>235.92000000000002</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R26" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S26" s="5">
-        <v>18</v>
-      </c>
-      <c r="T26" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="U26" s="5">
-        <v>28</v>
-      </c>
-      <c r="V26" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="W26" s="5">
-        <v>38</v>
-      </c>
-      <c r="X26" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="Y26" s="5">
-        <v>48</v>
-      </c>
-      <c r="Z26" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="F29" s="2">
         <v>804</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G29" s="2">
         <f t="shared" si="3"/>
         <v>74.63</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H29" s="5">
         <v>400</v>
       </c>
-      <c r="I27" s="5">
-        <v>26</v>
-      </c>
-      <c r="J27" s="5">
+      <c r="I29" s="5">
+        <v>25</v>
+      </c>
+      <c r="J29" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K29" s="5">
         <f t="shared" si="5"/>
         <v>223.89</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L29" s="2">
         <v>1.25</v>
       </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2">
-        <v>1</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S27" s="5">
-        <f>S26*0.85</f>
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="S29" s="5">
+        <f>S28*0.85</f>
         <v>15.299999999999999</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T29" s="5">
         <v>0.8</v>
       </c>
-      <c r="U27" s="5">
-        <f>U26*0.85</f>
+      <c r="U29" s="5">
+        <f>U28*0.85</f>
         <v>23.8</v>
       </c>
-      <c r="V27" s="5">
+      <c r="V29" s="5">
         <v>0.7</v>
       </c>
-      <c r="W27" s="5">
-        <f>W26*0.85</f>
+      <c r="W29" s="5">
+        <f>W28*0.85</f>
         <v>32.299999999999997</v>
       </c>
-      <c r="X27" s="5">
+      <c r="X29" s="5">
         <v>0.6</v>
       </c>
-      <c r="Y27" s="5">
-        <f>Y26*0.85</f>
+      <c r="Y29" s="5">
+        <f>Y28*0.85</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="Z27" s="5">
+      <c r="Z29" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="18" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="30" spans="1:31" ht="18" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
         <v>0</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F30" s="2">
         <v>727</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G30" s="2">
         <f t="shared" si="3"/>
         <v>82.53</v>
-      </c>
-      <c r="H28" s="5">
-        <v>400</v>
-      </c>
-      <c r="I28" s="5">
-        <v>26</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="5"/>
-        <v>247.59</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R28" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S28" s="5">
-        <f>S26*1.12</f>
-        <v>20.160000000000004</v>
-      </c>
-      <c r="T28" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="U28" s="5">
-        <f>U26*1.12</f>
-        <v>31.360000000000003</v>
-      </c>
-      <c r="V28" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="W28" s="5">
-        <f>W26*1.12</f>
-        <v>42.56</v>
-      </c>
-      <c r="X28" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="Y28" s="5">
-        <f>Y26*1.12</f>
-        <v>53.760000000000005</v>
-      </c>
-      <c r="Z28" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="18" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>950</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="3"/>
-        <v>63.16</v>
-      </c>
-      <c r="H29" s="5">
-        <v>400</v>
-      </c>
-      <c r="I29" s="5">
-        <v>20</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" si="5"/>
-        <v>252.64</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1</v>
-      </c>
-      <c r="N29" s="2">
-        <v>1</v>
-      </c>
-      <c r="O29" s="2">
-        <v>1</v>
-      </c>
-      <c r="P29" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>1</v>
-      </c>
-      <c r="R29" s="2">
-        <v>1</v>
-      </c>
-      <c r="S29" s="5">
-        <v>20</v>
-      </c>
-      <c r="T29" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="U29" s="5">
-        <v>30</v>
-      </c>
-      <c r="V29" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="W29" s="5">
-        <v>40</v>
-      </c>
-      <c r="X29" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="Y29" s="5">
-        <v>50</v>
-      </c>
-      <c r="Z29" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="18" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>700</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="3"/>
-        <v>85.71</v>
       </c>
       <c r="H30" s="5">
         <v>400</v>
@@ -3253,10 +3125,10 @@
       </c>
       <c r="K30" s="5">
         <f t="shared" si="5"/>
-        <v>257.13</v>
+        <v>247.59</v>
       </c>
       <c r="L30" s="2">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="M30" s="2">
         <v>1</v>
@@ -3265,46 +3137,50 @@
         <v>1</v>
       </c>
       <c r="O30" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q30" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="R30" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S30" s="5">
-        <v>18</v>
+        <f>S28*1.12</f>
+        <v>20.160000000000004</v>
       </c>
       <c r="T30" s="5">
         <v>0.8</v>
       </c>
       <c r="U30" s="5">
-        <v>28</v>
+        <f>U28*1.12</f>
+        <v>31.360000000000003</v>
       </c>
       <c r="V30" s="5">
         <v>0.7</v>
       </c>
       <c r="W30" s="5">
-        <v>38</v>
+        <f>W28*1.12</f>
+        <v>42.56</v>
       </c>
       <c r="X30" s="5">
         <v>0.6</v>
       </c>
       <c r="Y30" s="5">
-        <v>48</v>
+        <f>Y28*1.12</f>
+        <v>53.760000000000005</v>
       </c>
       <c r="Z30" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="18" customHeight="1">
-      <c r="A31" s="9"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>30</v>
@@ -3316,25 +3192,25 @@
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>747</v>
+        <v>950</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="3"/>
-        <v>80.319999999999993</v>
+        <f t="shared" ref="G31:G39" si="6">ROUND(60000/F31,2)</f>
+        <v>63.16</v>
       </c>
       <c r="H31" s="5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I31" s="5">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="J31:J39" si="7">ROUNDUP(100/I31,0)</f>
+        <v>5</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="5"/>
-        <v>240.95999999999998</v>
+        <f t="shared" ref="K31:K39" si="8">E31+(J31-1)*G31</f>
+        <v>252.64</v>
       </c>
       <c r="L31" s="2">
         <v>1.25</v>
@@ -3346,46 +3222,46 @@
         <v>1</v>
       </c>
       <c r="O31" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P31" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="2">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1</v>
+      </c>
+      <c r="S31" s="5">
+        <v>20</v>
+      </c>
+      <c r="T31" s="5">
         <v>0.8</v>
       </c>
-      <c r="R31" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S31" s="5">
-        <v>15</v>
-      </c>
-      <c r="T31" s="5">
-        <v>0.85</v>
-      </c>
       <c r="U31" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V31" s="5">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="W31" s="5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X31" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="Y31" s="5">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z31" s="5">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="18" customHeight="1">
-      <c r="A32" s="9"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>30</v>
@@ -3397,28 +3273,28 @@
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>605</v>
+        <v>700</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="3"/>
-        <v>99.17</v>
+        <f t="shared" si="6"/>
+        <v>85.71</v>
       </c>
       <c r="H32" s="5">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="I32" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="5"/>
-        <v>297.51</v>
+        <f t="shared" si="8"/>
+        <v>257.13</v>
       </c>
       <c r="L32" s="2">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="M32" s="2">
         <v>1</v>
@@ -3427,46 +3303,46 @@
         <v>1</v>
       </c>
       <c r="O32" s="2">
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2">
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="2">
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2">
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
       <c r="S32" s="5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T32" s="5">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="U32" s="5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="V32" s="5">
         <v>0.7</v>
       </c>
       <c r="W32" s="5">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X32" s="5">
         <v>0.6</v>
       </c>
       <c r="Y32" s="5">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Z32" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="18" customHeight="1">
-      <c r="A33" s="9"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>30</v>
@@ -3478,25 +3354,25 @@
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>659</v>
+        <v>747</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="3"/>
-        <v>91.05</v>
+        <f t="shared" si="6"/>
+        <v>80.319999999999993</v>
       </c>
       <c r="H33" s="5">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I33" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <f t="shared" si="8"/>
+        <v>240.95999999999998</v>
       </c>
       <c r="L33" s="2">
         <v>1.25</v>
@@ -3508,46 +3384,46 @@
         <v>1</v>
       </c>
       <c r="O33" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P33" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q33" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R33" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S33" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T33" s="5">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="U33" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V33" s="5">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="W33" s="5">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X33" s="5">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y33" s="5">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Z33" s="5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="18" customHeight="1">
-      <c r="A34" s="9"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>30</v>
@@ -3556,28 +3432,28 @@
         <v>1</v>
       </c>
       <c r="E34" s="5">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>780</v>
+        <v>605</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="3"/>
-        <v>76.92</v>
+        <f t="shared" si="6"/>
+        <v>99.17</v>
       </c>
       <c r="H34" s="5">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="I34" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="5"/>
-        <v>367.68</v>
+        <f t="shared" si="8"/>
+        <v>297.51</v>
       </c>
       <c r="L34" s="2">
         <v>1.25</v>
@@ -3589,49 +3465,49 @@
         <v>1</v>
       </c>
       <c r="O34" s="2">
-        <v>1</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="P34" s="2">
-        <v>1</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="Q34" s="2">
-        <v>1</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="R34" s="2">
-        <v>1</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="S34" s="5">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="T34" s="5">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="U34" s="5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="V34" s="5">
         <v>0.7</v>
       </c>
       <c r="W34" s="5">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="X34" s="5">
         <v>0.6</v>
       </c>
       <c r="Y34" s="5">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Z34" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="18" customHeight="1">
-      <c r="A35" s="9"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -3640,25 +3516,25 @@
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <v>1091</v>
+        <v>659</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="3"/>
-        <v>55</v>
+        <f t="shared" si="6"/>
+        <v>91.05</v>
       </c>
       <c r="H35" s="5">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="I35" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="5"/>
-        <v>220</v>
+        <f t="shared" si="8"/>
+        <v>273.14999999999998</v>
       </c>
       <c r="L35" s="2">
         <v>1.25</v>
@@ -3676,40 +3552,40 @@
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S35" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T35" s="5">
         <v>0.8</v>
       </c>
       <c r="U35" s="5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V35" s="5">
         <v>0.7</v>
       </c>
       <c r="W35" s="5">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="X35" s="5">
         <v>0.6</v>
       </c>
       <c r="Y35" s="5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z35" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="18" customHeight="1">
-      <c r="A36" s="9"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>30</v>
@@ -3718,28 +3594,28 @@
         <v>1</v>
       </c>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F36" s="2">
-        <v>898</v>
+        <v>780</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="3"/>
-        <v>66.819999999999993</v>
+        <f t="shared" si="6"/>
+        <v>76.92</v>
       </c>
       <c r="H36" s="5">
         <v>400</v>
       </c>
       <c r="I36" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="5"/>
-        <v>267.27999999999997</v>
+        <f t="shared" si="8"/>
+        <v>367.68</v>
       </c>
       <c r="L36" s="2">
         <v>1.25</v>
@@ -3784,16 +3660,16 @@
         <v>45</v>
       </c>
       <c r="Z36" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="18" customHeight="1">
-      <c r="A37" s="9"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -3802,25 +3678,25 @@
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>820</v>
+        <v>1091</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="3"/>
-        <v>73.17</v>
+        <f t="shared" si="6"/>
+        <v>55</v>
       </c>
       <c r="H37" s="5">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="I37" s="5">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="5"/>
-        <v>219.51</v>
+        <f t="shared" si="8"/>
+        <v>220</v>
       </c>
       <c r="L37" s="2">
         <v>1.25</v>
@@ -3832,16 +3708,16 @@
         <v>1</v>
       </c>
       <c r="O37" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P37" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="R37" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S37" s="5">
         <v>15</v>
@@ -3870,71 +3746,119 @@
     </row>
     <row r="38" spans="1:31" ht="18" customHeight="1">
       <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
+      <c r="B38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>898</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="6"/>
+        <v>66.819999999999993</v>
+      </c>
+      <c r="H38" s="5">
+        <v>400</v>
+      </c>
+      <c r="I38" s="5">
+        <v>22</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="8"/>
+        <v>267.27999999999997</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1</v>
+      </c>
+      <c r="S38" s="5">
+        <v>15</v>
+      </c>
+      <c r="T38" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U38" s="5">
+        <v>25</v>
+      </c>
+      <c r="V38" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W38" s="5">
+        <v>35</v>
+      </c>
+      <c r="X38" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>45</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="39" spans="1:31" ht="18" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>375</v>
+        <v>820</v>
       </c>
       <c r="G39" s="2">
-        <f>ROUND(60000/F39,2)</f>
-        <v>160</v>
+        <f t="shared" si="6"/>
+        <v>73.17</v>
       </c>
       <c r="H39" s="5">
         <v>400</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>70</v>
+      <c r="I39" s="5">
+        <v>26</v>
       </c>
       <c r="J39" s="5">
-        <v>3</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>71</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" si="8"/>
+        <v>219.51</v>
       </c>
       <c r="L39" s="2">
         <v>1.25</v>
@@ -3946,207 +3870,88 @@
         <v>1</v>
       </c>
       <c r="O39" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P39" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q39" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R39" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S39" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="T39" s="5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="U39" s="5">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="V39" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W39" s="5">
+        <v>35</v>
+      </c>
+      <c r="X39" s="5">
         <v>0.6</v>
       </c>
-      <c r="W39" s="5">
-        <v>18</v>
-      </c>
-      <c r="X39" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z39" s="5" t="s">
-        <v>72</v>
+      <c r="Y39" s="5">
+        <v>45</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="18" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="2">
-        <v>2</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>74</v>
-      </c>
-      <c r="G40" s="2">
-        <f>ROUND(60000/F40,2)</f>
-        <v>810.81</v>
-      </c>
-      <c r="H40" s="5">
-        <v>400</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J40" s="5">
-        <v>4</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1</v>
-      </c>
-      <c r="N40" s="2">
-        <v>1</v>
-      </c>
-      <c r="O40" s="2">
-        <v>1</v>
-      </c>
-      <c r="P40" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>1</v>
-      </c>
-      <c r="R40" s="2">
-        <v>1</v>
-      </c>
-      <c r="S40" s="5">
-        <v>10</v>
-      </c>
-      <c r="T40" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="U40" s="5">
-        <v>15</v>
-      </c>
-      <c r="V40" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="W40" s="5">
-        <v>20</v>
-      </c>
-      <c r="X40" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
     </row>
     <row r="41" spans="1:31" ht="18" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>300</v>
-      </c>
-      <c r="G41" s="2">
-        <f>ROUND(60000/F41,2)</f>
-        <v>200</v>
-      </c>
-      <c r="H41" s="5">
-        <v>400</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J41" s="5">
-        <v>6</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="M41" s="2">
-        <v>1</v>
-      </c>
-      <c r="N41" s="2">
-        <v>1</v>
-      </c>
-      <c r="O41" s="2">
-        <v>1</v>
-      </c>
-      <c r="P41" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>1</v>
-      </c>
-      <c r="R41" s="2">
-        <v>1</v>
-      </c>
-      <c r="S41" s="5">
-        <v>4</v>
-      </c>
-      <c r="T41" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="U41" s="5">
-        <v>8</v>
-      </c>
-      <c r="V41" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="W41" s="5">
-        <v>12</v>
-      </c>
-      <c r="X41" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="Y41" s="5">
-        <v>20</v>
-      </c>
-      <c r="Z41" s="5">
-        <v>0.1</v>
-      </c>
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:31" ht="18" customHeight="1">
-      <c r="A42" s="9"/>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -4155,23 +3960,23 @@
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="G42" s="2">
         <f>ROUND(60000/F42,2)</f>
-        <v>229.89</v>
+        <v>160</v>
       </c>
       <c r="H42" s="5">
         <v>400</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J42" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L42" s="2">
         <v>1.25</v>
@@ -4195,382 +4000,421 @@
         <v>1</v>
       </c>
       <c r="S42" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T42" s="5">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="U42" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V42" s="5">
         <v>0.6</v>
       </c>
       <c r="W42" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="X42" s="5">
         <v>0.2</v>
       </c>
-      <c r="Y42" s="5">
-        <v>20</v>
-      </c>
-      <c r="Z42" s="5">
-        <v>0.1</v>
+      <c r="Y42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="18" customHeight="1">
       <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
+      <c r="B43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>74</v>
+      </c>
+      <c r="G43" s="2">
+        <f>ROUND(60000/F43,2)</f>
+        <v>810.81</v>
+      </c>
+      <c r="H43" s="5">
+        <v>400</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" s="5">
+        <v>4</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1</v>
+      </c>
+      <c r="S43" s="5">
+        <v>10</v>
+      </c>
+      <c r="T43" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="U43" s="5">
+        <v>15</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W43" s="5">
+        <v>20</v>
+      </c>
+      <c r="X43" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="44" spans="1:31" ht="18" customHeight="1">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>300</v>
+      </c>
+      <c r="G44" s="2">
+        <f>ROUND(60000/F44,2)</f>
+        <v>200</v>
+      </c>
+      <c r="H44" s="5">
+        <v>400</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="5">
+        <v>6</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1</v>
+      </c>
+      <c r="R44" s="2">
+        <v>1</v>
+      </c>
+      <c r="S44" s="5">
+        <v>4</v>
+      </c>
+      <c r="T44" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U44" s="5">
+        <v>8</v>
+      </c>
+      <c r="V44" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="W44" s="5">
+        <v>12</v>
+      </c>
+      <c r="X44" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>20</v>
+      </c>
+      <c r="Z44" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" ht="18" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>261</v>
+      </c>
+      <c r="G45" s="2">
+        <f>ROUND(60000/F45,2)</f>
+        <v>229.89</v>
+      </c>
+      <c r="H45" s="5">
+        <v>400</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45" s="5">
+        <v>5</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1</v>
+      </c>
+      <c r="R45" s="2">
+        <v>1</v>
+      </c>
+      <c r="S45" s="5">
+        <v>4</v>
+      </c>
+      <c r="T45" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U45" s="5">
+        <v>8</v>
+      </c>
+      <c r="V45" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="W45" s="5">
+        <v>12</v>
+      </c>
+      <c r="X45" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>20</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" ht="18" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+    </row>
+    <row r="47" spans="1:31" ht="18" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:31" ht="18" customHeight="1">
+      <c r="B48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>60</v>
+      </c>
+      <c r="F48" s="2">
+        <v>785</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" ref="G48:G54" si="9">ROUND(60000/F48,2)</f>
+        <v>76.430000000000007</v>
+      </c>
+      <c r="H48" s="5">
+        <v>550</v>
+      </c>
+      <c r="I48" s="5">
+        <v>21</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" ref="J48:J54" si="10">ROUNDUP(100/I48,0)</f>
+        <v>5</v>
+      </c>
+      <c r="K48" s="5">
+        <f>E48+(J48-1)*G48</f>
+        <v>365.72</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="R48" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="S48" s="5">
+        <v>40</v>
+      </c>
+      <c r="T48" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="U48" s="5">
+        <v>50</v>
+      </c>
+      <c r="V48" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="W48" s="5">
+        <v>70</v>
+      </c>
+      <c r="X48" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>90</v>
+      </c>
+      <c r="Z48" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" ht="18" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5">
+      <c r="C49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
         <v>60</v>
       </c>
-      <c r="F44" s="2">
-        <v>785</v>
-      </c>
-      <c r="G44" s="2">
-        <f t="shared" ref="G44:G51" si="6">ROUND(60000/F44,2)</f>
-        <v>76.430000000000007</v>
-      </c>
-      <c r="H44" s="5">
-        <v>550</v>
-      </c>
-      <c r="I44" s="5">
-        <v>21</v>
-      </c>
-      <c r="J44" s="5">
-        <f t="shared" ref="J44:J51" si="7">ROUNDUP(100/I44,0)</f>
-        <v>5</v>
-      </c>
-      <c r="K44" s="5">
-        <f>E44+(J44-1)*G44</f>
-        <v>365.72</v>
-      </c>
-      <c r="L44" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="M44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44" s="2">
-        <v>1</v>
-      </c>
-      <c r="O44" s="2">
-        <v>1</v>
-      </c>
-      <c r="P44" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S44" s="5">
-        <v>40</v>
-      </c>
-      <c r="T44" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="U44" s="5">
-        <v>50</v>
-      </c>
-      <c r="V44" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="W44" s="5">
-        <v>70</v>
-      </c>
-      <c r="X44" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="Y44" s="5">
-        <v>90</v>
-      </c>
-      <c r="Z44" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" ht="18" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5">
-        <v>60</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="F49" s="2">
         <v>827</v>
       </c>
-      <c r="G45" s="2">
-        <f t="shared" si="6"/>
+      <c r="G49" s="2">
+        <f t="shared" si="9"/>
         <v>72.55</v>
-      </c>
-      <c r="H45" s="5">
-        <v>550</v>
-      </c>
-      <c r="I45" s="5">
-        <v>21</v>
-      </c>
-      <c r="J45" s="5">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="K45" s="5">
-        <f t="shared" ref="K45:K51" si="8">E45+(J45-1)*G45</f>
-        <v>350.2</v>
-      </c>
-      <c r="L45" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
-      <c r="N45" s="2">
-        <v>1</v>
-      </c>
-      <c r="O45" s="2">
-        <v>1</v>
-      </c>
-      <c r="P45" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S45" s="5">
-        <f>S44*0.75</f>
-        <v>30</v>
-      </c>
-      <c r="T45" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="U45" s="5">
-        <f>U44*0.75</f>
-        <v>37.5</v>
-      </c>
-      <c r="V45" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="W45" s="5">
-        <f>W44*0.75</f>
-        <v>52.5</v>
-      </c>
-      <c r="X45" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="Y45" s="5">
-        <f>Y44*0.75</f>
-        <v>67.5</v>
-      </c>
-      <c r="Z45" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" ht="18" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5">
-        <v>60</v>
-      </c>
-      <c r="F46" s="2">
-        <v>748</v>
-      </c>
-      <c r="G46" s="2">
-        <f t="shared" si="6"/>
-        <v>80.209999999999994</v>
-      </c>
-      <c r="H46" s="5">
-        <v>550</v>
-      </c>
-      <c r="I46" s="5">
-        <v>21</v>
-      </c>
-      <c r="J46" s="5">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="K46" s="5">
-        <f t="shared" si="8"/>
-        <v>380.84</v>
-      </c>
-      <c r="L46" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="M46" s="2">
-        <v>1</v>
-      </c>
-      <c r="N46" s="2">
-        <v>1</v>
-      </c>
-      <c r="O46" s="2">
-        <v>1</v>
-      </c>
-      <c r="P46" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R46" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S46" s="5">
-        <f>S44*1.15</f>
-        <v>46</v>
-      </c>
-      <c r="T46" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="U46" s="5">
-        <f>U44*1.15</f>
-        <v>57.499999999999993</v>
-      </c>
-      <c r="V46" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="W46" s="5">
-        <f>W44*1.15</f>
-        <v>80.5</v>
-      </c>
-      <c r="X46" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="Y46" s="5">
-        <f>Y44*1.15</f>
-        <v>103.49999999999999</v>
-      </c>
-      <c r="Z46" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" ht="18" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:31" ht="18" customHeight="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="1:31" ht="18" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5">
-        <v>100</v>
-      </c>
-      <c r="F49" s="2">
-        <v>550</v>
-      </c>
-      <c r="G49" s="2">
-        <f t="shared" si="6"/>
-        <v>109.09</v>
       </c>
       <c r="H49" s="5">
         <v>550</v>
       </c>
       <c r="I49" s="5">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="8"/>
-        <v>318.18</v>
+        <f t="shared" ref="K49:K54" si="11">E49+(J49-1)*G49</f>
+        <v>350.2</v>
       </c>
       <c r="L49" s="2">
         <v>1.9</v>
@@ -4579,79 +4423,83 @@
         <v>1</v>
       </c>
       <c r="N49" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O49" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="R49" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S49" s="5">
-        <v>40</v>
+        <f>S48*0.75</f>
+        <v>30</v>
       </c>
       <c r="T49" s="5">
-        <v>0.77500000000000002</v>
+        <v>0.85</v>
       </c>
       <c r="U49" s="5">
-        <v>50</v>
+        <f>U48*0.75</f>
+        <v>37.5</v>
       </c>
       <c r="V49" s="5">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="W49" s="5">
-        <v>70</v>
+        <f>W48*0.75</f>
+        <v>52.5</v>
       </c>
       <c r="X49" s="5">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="Y49" s="5">
-        <v>90</v>
+        <f>Y48*0.75</f>
+        <v>67.5</v>
       </c>
       <c r="Z49" s="5">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="18" customHeight="1">
-      <c r="A50" s="9"/>
+      <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
       <c r="E50" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="6"/>
-        <v>69.930000000000007</v>
+        <f t="shared" si="9"/>
+        <v>80.209999999999994</v>
       </c>
       <c r="H50" s="5">
         <v>550</v>
       </c>
       <c r="I50" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="8"/>
-        <v>329.72</v>
+        <f t="shared" si="11"/>
+        <v>380.84</v>
       </c>
       <c r="L50" s="2">
         <v>1.9</v>
@@ -4669,70 +4517,74 @@
         <v>1</v>
       </c>
       <c r="Q50" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="R50" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S50" s="5">
-        <v>40</v>
+        <f>S48*1.15</f>
+        <v>46</v>
       </c>
       <c r="T50" s="5">
         <v>0.85</v>
       </c>
       <c r="U50" s="5">
-        <v>50</v>
+        <f>U48*1.15</f>
+        <v>57.499999999999993</v>
       </c>
       <c r="V50" s="5">
         <v>0.75</v>
       </c>
       <c r="W50" s="5">
-        <v>70</v>
+        <f>W48*1.15</f>
+        <v>80.5</v>
       </c>
       <c r="X50" s="5">
         <v>0.65</v>
       </c>
       <c r="Y50" s="5">
-        <v>90</v>
+        <f>Y48*1.15</f>
+        <v>103.49999999999999</v>
       </c>
       <c r="Z50" s="5">
         <v>0.6</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="18" customHeight="1">
-      <c r="A51" s="9"/>
+      <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
       </c>
       <c r="E51" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>669</v>
+        <v>785</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="6"/>
-        <v>89.69</v>
+        <f t="shared" ref="G51" si="12">ROUND(60000/F51,2)</f>
+        <v>76.430000000000007</v>
       </c>
       <c r="H51" s="5">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="I51" s="5">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" ref="J51" si="13">ROUNDUP(100/I51,0)</f>
+        <v>5</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="8"/>
-        <v>319.07</v>
+        <f t="shared" ref="K51" si="14">E51+(J51-1)*G51</f>
+        <v>305.72000000000003</v>
       </c>
       <c r="L51" s="2">
         <v>1.9</v>
@@ -4750,10 +4602,10 @@
         <v>1</v>
       </c>
       <c r="Q51" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="R51" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S51" s="5">
         <v>40</v>
@@ -4765,660 +4617,583 @@
         <v>50</v>
       </c>
       <c r="V51" s="5">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="W51" s="5">
         <v>70</v>
       </c>
       <c r="X51" s="5">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="Y51" s="5">
         <v>90</v>
       </c>
       <c r="Z51" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="18" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="8"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>100</v>
+      </c>
+      <c r="F52" s="2">
+        <v>550</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="9"/>
+        <v>109.09</v>
+      </c>
+      <c r="H52" s="5">
+        <v>550</v>
+      </c>
+      <c r="I52" s="5">
+        <v>34</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="K52" s="5">
+        <f t="shared" si="11"/>
+        <v>318.18</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R52" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S52" s="5">
+        <v>40</v>
+      </c>
+      <c r="T52" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="U52" s="5">
+        <v>50</v>
+      </c>
+      <c r="V52" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="W52" s="5">
+        <v>70</v>
+      </c>
+      <c r="X52" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>90</v>
+      </c>
+      <c r="Z52" s="5">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="53" spans="1:31" ht="18" customHeight="1">
-      <c r="A53" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
+        <v>50</v>
+      </c>
+      <c r="F53" s="2">
+        <v>858</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="9"/>
+        <v>69.930000000000007</v>
+      </c>
+      <c r="H53" s="5">
+        <v>550</v>
+      </c>
+      <c r="I53" s="5">
+        <v>20</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="K53" s="5">
+        <f t="shared" si="11"/>
+        <v>329.72</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2">
+        <v>1</v>
+      </c>
+      <c r="O53" s="2">
+        <v>1</v>
+      </c>
+      <c r="P53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S53" s="5">
+        <v>40</v>
+      </c>
+      <c r="T53" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="U53" s="5">
+        <v>50</v>
+      </c>
+      <c r="V53" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="W53" s="5">
+        <v>70</v>
+      </c>
+      <c r="X53" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="Y53" s="5">
         <v>90</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>100</v>
-      </c>
-      <c r="G53" s="2">
-        <f>ROUND(60000/F53,2)</f>
+      <c r="Z53" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="18" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>50</v>
+      </c>
+      <c r="F54" s="2">
+        <v>669</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="9"/>
+        <v>89.69</v>
+      </c>
+      <c r="H54" s="5">
         <v>600</v>
       </c>
-      <c r="H53" s="5">
-        <v>750</v>
-      </c>
-      <c r="I53" s="5">
-        <v>54</v>
-      </c>
-      <c r="J53" s="5">
-        <f>ROUNDUP(100/I53,0)</f>
-        <v>2</v>
-      </c>
-      <c r="K53" s="5">
-        <f>E53+(J53-1)*G53</f>
-        <v>600</v>
-      </c>
-      <c r="L53" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="M53" s="5">
-        <v>1</v>
-      </c>
-      <c r="N53" s="5">
-        <v>1</v>
-      </c>
-      <c r="O53" s="5">
-        <v>1</v>
-      </c>
-      <c r="P53" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="5">
-        <v>1</v>
-      </c>
-      <c r="R53" s="5">
-        <v>1</v>
-      </c>
-      <c r="S53" s="5">
-        <v>30</v>
-      </c>
-      <c r="T53" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="U53" s="5">
-        <v>60</v>
-      </c>
-      <c r="V53" s="5">
+      <c r="I54" s="5">
+        <v>25</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="K54" s="5">
+        <f t="shared" si="11"/>
+        <v>319.07</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+      <c r="N54" s="2">
+        <v>1</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>1</v>
+      </c>
+      <c r="R54" s="2">
         <v>0.8</v>
       </c>
-      <c r="W53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="X53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z53" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" ht="18" customHeight="1">
-      <c r="A54" s="6"/>
-      <c r="B54" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>75</v>
-      </c>
-      <c r="G54" s="2">
-        <f>ROUND(60000/F54,2)</f>
-        <v>800</v>
-      </c>
-      <c r="H54" s="5">
-        <v>750</v>
-      </c>
-      <c r="I54" s="5">
-        <v>100</v>
-      </c>
-      <c r="J54" s="5">
-        <f>ROUNDUP(100/I54,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K54" s="5">
-        <f>E54+(J54-1)*G54</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="M54" s="5">
-        <v>1</v>
-      </c>
-      <c r="N54" s="5">
-        <v>1</v>
-      </c>
-      <c r="O54" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="P54" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="Q54" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="R54" s="5">
-        <v>0.6</v>
-      </c>
       <c r="S54" s="5">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="T54" s="5">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="U54" s="5">
         <v>50</v>
       </c>
       <c r="V54" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W54" s="5">
+        <v>70</v>
+      </c>
+      <c r="X54" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y54" s="5">
+        <v>90</v>
+      </c>
+      <c r="Z54" s="5">
         <v>0.5</v>
       </c>
-      <c r="W54" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="X54" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y54" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z54" s="5" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="55" spans="1:31" ht="18" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>200</v>
-      </c>
-      <c r="G55" s="2">
-        <f>ROUND(60000/F55,2)</f>
-        <v>300</v>
-      </c>
-      <c r="H55" s="5">
-        <v>750</v>
-      </c>
-      <c r="I55" s="5">
-        <v>54</v>
-      </c>
-      <c r="J55" s="5">
-        <f>ROUNDUP(100/I55,0)</f>
-        <v>2</v>
-      </c>
-      <c r="K55" s="5">
-        <f>E55+(J55-1)*G55</f>
-        <v>300</v>
-      </c>
-      <c r="L55" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="M55" s="5">
-        <v>1</v>
-      </c>
-      <c r="N55" s="5">
-        <v>1</v>
-      </c>
-      <c r="O55" s="5">
-        <v>1</v>
-      </c>
-      <c r="P55" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="R55" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="S55" s="5">
-        <v>30</v>
-      </c>
-      <c r="T55" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="U55" s="5">
-        <v>60</v>
-      </c>
-      <c r="V55" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="W55" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="X55" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y55" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z55" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
     </row>
     <row r="56" spans="1:31" ht="18" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="2">
-        <v>2</v>
-      </c>
-      <c r="E56" s="5">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>300</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" ref="G56:G63" si="9">ROUND(60000/F56,2)</f>
-        <v>200</v>
-      </c>
-      <c r="H56" s="5">
-        <v>550</v>
-      </c>
-      <c r="I56" s="5">
-        <v>35</v>
-      </c>
-      <c r="J56" s="5">
-        <f t="shared" ref="J56:J63" si="10">ROUNDUP(100/I56,0)</f>
-        <v>3</v>
-      </c>
-      <c r="K56" s="5">
-        <f t="shared" ref="K56:K63" si="11">E56+(J56-1)*G56</f>
-        <v>400</v>
-      </c>
-      <c r="L56" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="M56" s="2">
-        <v>1</v>
-      </c>
-      <c r="N56" s="2">
-        <v>1</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R56" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S56" s="5">
+      <c r="A56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:31" ht="18" customHeight="1">
+      <c r="B57" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="T56" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="U56" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="V56" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W56" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X56" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y56" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z56" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" ht="18" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="2">
-        <v>261</v>
+      <c r="F57" s="3">
+        <v>100</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="9"/>
-        <v>229.89</v>
+        <f>ROUND(60000/F57,2)</f>
+        <v>600</v>
       </c>
       <c r="H57" s="5">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="I57" s="5">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f>ROUNDUP(100/I57,0)</f>
+        <v>2</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="11"/>
-        <v>459.78</v>
-      </c>
-      <c r="L57" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="M57" s="2">
-        <v>1</v>
-      </c>
-      <c r="N57" s="2">
-        <v>1</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R57" s="2">
-        <v>0.9</v>
+        <f>E57+(J57-1)*G57</f>
+        <v>600</v>
+      </c>
+      <c r="L57" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="M57" s="5">
+        <v>1</v>
+      </c>
+      <c r="N57" s="5">
+        <v>1</v>
+      </c>
+      <c r="O57" s="5">
+        <v>1</v>
+      </c>
+      <c r="P57" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>1</v>
+      </c>
+      <c r="R57" s="5">
+        <v>1</v>
       </c>
       <c r="S57" s="5">
+        <v>30</v>
+      </c>
+      <c r="T57" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U57" s="5">
+        <v>60</v>
+      </c>
+      <c r="V57" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z57" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" ht="18" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="T57" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="U57" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="V57" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W57" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X57" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y57" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z57" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" ht="18" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D58" s="2">
         <v>2</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="2">
-        <v>364</v>
+      <c r="F58" s="3">
+        <v>75</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="9"/>
-        <v>164.84</v>
+        <f>ROUND(60000/F58,2)</f>
+        <v>800</v>
       </c>
       <c r="H58" s="5">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="I58" s="5">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f>ROUNDUP(100/I58,0)</f>
+        <v>1</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="11"/>
-        <v>329.68</v>
-      </c>
-      <c r="L58" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="M58" s="2">
-        <v>1</v>
-      </c>
-      <c r="N58" s="2">
-        <v>1</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R58" s="2">
-        <v>0.9</v>
+        <f>E58+(J58-1)*G58</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="M58" s="5">
+        <v>1</v>
+      </c>
+      <c r="N58" s="5">
+        <v>1</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="R58" s="5">
+        <v>0.6</v>
       </c>
       <c r="S58" s="5">
+        <v>23</v>
+      </c>
+      <c r="T58" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U58" s="5">
+        <v>50</v>
+      </c>
+      <c r="V58" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z58" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="18" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="T58" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="U58" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="V58" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W58" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X58" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y58" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z58" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" ht="18" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="2">
-        <v>510</v>
+      <c r="F59" s="3">
+        <v>200</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="9"/>
-        <v>117.65</v>
+        <f>ROUND(60000/F59,2)</f>
+        <v>300</v>
       </c>
       <c r="H59" s="5">
-        <v>575</v>
+        <v>750</v>
       </c>
       <c r="I59" s="5">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f>ROUNDUP(100/I59,0)</f>
+        <v>2</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="11"/>
-        <v>352.95000000000005</v>
-      </c>
-      <c r="L59" s="2">
+        <f>E59+(J59-1)*G59</f>
+        <v>300</v>
+      </c>
+      <c r="L59" s="5">
         <v>1.9</v>
       </c>
-      <c r="M59" s="2">
-        <v>1</v>
-      </c>
-      <c r="N59" s="2">
-        <v>1</v>
-      </c>
-      <c r="O59" s="2">
-        <v>1</v>
-      </c>
-      <c r="P59" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>1</v>
-      </c>
-      <c r="R59" s="2">
-        <v>1</v>
+      <c r="M59" s="5">
+        <v>1</v>
+      </c>
+      <c r="N59" s="5">
+        <v>1</v>
+      </c>
+      <c r="O59" s="5">
+        <v>1</v>
+      </c>
+      <c r="P59" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="R59" s="5">
+        <v>0.9</v>
       </c>
       <c r="S59" s="5">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="T59" s="5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="U59" s="5">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="V59" s="5">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y59" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z59" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="18" customHeight="1">
-      <c r="A60" s="6"/>
+      <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="5">
         <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>727</v>
+        <v>300</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="9"/>
-        <v>82.53</v>
+        <f t="shared" ref="G60:G68" si="15">ROUND(60000/F60,2)</f>
+        <v>200</v>
       </c>
       <c r="H60" s="5">
         <v>550</v>
       </c>
       <c r="I60" s="5">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" ref="J60:J68" si="16">ROUNDUP(100/I60,0)</f>
+        <v>3</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="11"/>
-        <v>247.59</v>
+        <f t="shared" ref="K60:K68" si="17">E60+(J60-1)*G60</f>
+        <v>400</v>
       </c>
       <c r="L60" s="2">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="M60" s="2">
         <v>1</v>
@@ -5427,49 +5202,49 @@
         <v>1</v>
       </c>
       <c r="O60" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P60" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q60" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="R60" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S60" s="5">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="T60" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="U60" s="5">
-        <v>40</v>
-      </c>
-      <c r="V60" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="W60" s="5">
-        <v>60</v>
-      </c>
-      <c r="X60" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="Y60" s="5">
-        <v>80</v>
-      </c>
-      <c r="Z60" s="5">
-        <v>0.5</v>
+        <v>0.85</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z60" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="18" customHeight="1">
-      <c r="A61" s="6"/>
+      <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61" s="2">
         <v>2</v>
@@ -5478,25 +5253,25 @@
         <v>0</v>
       </c>
       <c r="F61" s="2">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="9"/>
-        <v>200</v>
+        <f t="shared" si="15"/>
+        <v>229.89</v>
       </c>
       <c r="H61" s="5">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="I61" s="5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="11"/>
-        <v>400</v>
+        <f t="shared" si="17"/>
+        <v>459.78</v>
       </c>
       <c r="L61" s="2">
         <v>1.5</v>
@@ -5508,49 +5283,49 @@
         <v>1</v>
       </c>
       <c r="O61" s="2">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="P61" s="2">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="Q61" s="2">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="R61" s="2">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="S61" s="5">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="T61" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="U61" s="5">
-        <v>90</v>
-      </c>
-      <c r="V61" s="5">
-        <v>0.625</v>
+        <v>0.85</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X61" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z61" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="18" customHeight="1">
-      <c r="A62" s="6"/>
+      <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
@@ -5559,28 +5334,28 @@
         <v>0</v>
       </c>
       <c r="F62" s="2">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="9"/>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>164.84</v>
       </c>
       <c r="H62" s="5">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="I62" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="11"/>
-        <v>375</v>
+        <f t="shared" si="17"/>
+        <v>329.68</v>
       </c>
       <c r="L62" s="2">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="M62" s="2">
         <v>1</v>
@@ -5589,49 +5364,49 @@
         <v>1</v>
       </c>
       <c r="O62" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P62" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q62" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="R62" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S62" s="5">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="T62" s="5">
         <v>0.85</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V62" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W62" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X62" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y62" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z62" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="18" customHeight="1">
-      <c r="A63" s="6"/>
+      <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -5640,194 +5415,241 @@
         <v>0</v>
       </c>
       <c r="F63" s="2">
-        <v>590</v>
+        <v>364</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="9"/>
-        <v>101.69</v>
+        <f t="shared" si="15"/>
+        <v>164.84</v>
       </c>
       <c r="H63" s="5">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="I63" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K63" s="5">
+        <f t="shared" si="17"/>
+        <v>164.84</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2">
+        <v>1</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="S63" s="5">
+        <v>30</v>
+      </c>
+      <c r="T63" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="U63" s="5">
+        <v>50</v>
+      </c>
+      <c r="V63" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X63" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y63" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z63" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="18" customHeight="1">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>510</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="15"/>
+        <v>117.65</v>
+      </c>
+      <c r="H64" s="5">
+        <v>575</v>
+      </c>
+      <c r="I64" s="5">
+        <v>27</v>
+      </c>
+      <c r="J64" s="5">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="K63" s="5">
-        <f t="shared" si="11"/>
-        <v>305.07</v>
-      </c>
-      <c r="L63" s="2">
+      <c r="K64" s="5">
+        <f t="shared" si="17"/>
+        <v>352.95000000000005</v>
+      </c>
+      <c r="L64" s="2">
         <v>1.9</v>
       </c>
-      <c r="M63" s="2">
-        <v>1</v>
-      </c>
-      <c r="N63" s="2">
-        <v>1</v>
-      </c>
-      <c r="O63" s="2">
-        <v>1</v>
-      </c>
-      <c r="P63" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>1</v>
-      </c>
-      <c r="R63" s="2">
-        <v>1</v>
-      </c>
-      <c r="S63" s="5">
+      <c r="M64" s="2">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2">
+        <v>1</v>
+      </c>
+      <c r="O64" s="2">
+        <v>1</v>
+      </c>
+      <c r="P64" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>1</v>
+      </c>
+      <c r="R64" s="2">
+        <v>1</v>
+      </c>
+      <c r="S64" s="5">
+        <v>55</v>
+      </c>
+      <c r="T64" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="U64" s="5">
         <v>90</v>
       </c>
-      <c r="T63" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="U63" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="V63" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W63" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X63" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y63" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z63" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" ht="18" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="8"/>
-      <c r="AC64" s="8"/>
-      <c r="AD64" s="8"/>
-      <c r="AE64" s="8"/>
+      <c r="V64" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z64" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="65" spans="1:31" ht="18" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
       </c>
       <c r="F65" s="2">
-        <v>35</v>
+        <v>727</v>
       </c>
       <c r="G65" s="2">
-        <f>ROUND(60000/F65,2)</f>
-        <v>1714.29</v>
+        <f t="shared" si="15"/>
+        <v>82.53</v>
       </c>
       <c r="H65" s="5">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="I65" s="5">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" ref="J65:J74" si="12">ROUNDUP(100/I65,0)</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="K65" s="5">
-        <v>750</v>
+        <f t="shared" si="17"/>
+        <v>247.59</v>
       </c>
       <c r="L65" s="2">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="M65" s="2">
         <v>1</v>
       </c>
       <c r="N65" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O65" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="P65" s="2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="2">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="R65" s="2">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="S65" s="5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T65" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U65" s="5">
+        <v>40</v>
+      </c>
+      <c r="V65" s="5">
         <v>0.7</v>
       </c>
-      <c r="U65" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="V65" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W65" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X65" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y65" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z65" s="5" t="s">
-        <v>72</v>
+      <c r="W65" s="5">
+        <v>60</v>
+      </c>
+      <c r="X65" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y65" s="5">
+        <v>80</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="18" customHeight="1">
-      <c r="A66" s="6"/>
+      <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D66" s="2">
         <v>2</v>
@@ -5836,27 +5658,28 @@
         <v>0</v>
       </c>
       <c r="F66" s="2">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="G66" s="2">
-        <f>ROUND(60000/F66,2)</f>
-        <v>1250</v>
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
       <c r="H66" s="5">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="I66" s="5">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="K66" s="5">
-        <v>650</v>
+        <f t="shared" si="17"/>
+        <v>400</v>
       </c>
       <c r="L66" s="2">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M66" s="2">
         <v>1</v>
@@ -5865,49 +5688,49 @@
         <v>1</v>
       </c>
       <c r="O66" s="2">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="P66" s="2">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="Q66" s="2">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="R66" s="2">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="S66" s="5">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="T66" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="U66" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="V66" s="5" t="s">
-        <v>72</v>
+        <v>0.9</v>
+      </c>
+      <c r="U66" s="5">
+        <v>90</v>
+      </c>
+      <c r="V66" s="5">
+        <v>0.625</v>
       </c>
       <c r="W66" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X66" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y66" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z66" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="18" customHeight="1">
-      <c r="A67" s="6"/>
+      <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
@@ -5916,27 +5739,28 @@
         <v>0</v>
       </c>
       <c r="F67" s="2">
-        <v>56</v>
+        <v>480</v>
       </c>
       <c r="G67" s="2">
-        <f>ROUND(60000/F67,2)</f>
-        <v>1071.43</v>
+        <f t="shared" si="15"/>
+        <v>125</v>
       </c>
       <c r="H67" s="5">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="I67" s="5">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="K67" s="5">
-        <v>650</v>
+        <f t="shared" si="17"/>
+        <v>375</v>
       </c>
       <c r="L67" s="2">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="M67" s="2">
         <v>1</v>
@@ -5957,37 +5781,37 @@
         <v>1</v>
       </c>
       <c r="S67" s="5">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="T67" s="5">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V67" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X67" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y67" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z67" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="18" customHeight="1">
-      <c r="A68" s="6"/>
+      <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D68" s="2">
         <v>2</v>
@@ -5996,27 +5820,28 @@
         <v>0</v>
       </c>
       <c r="F68" s="2">
-        <v>44</v>
+        <v>590</v>
       </c>
       <c r="G68" s="2">
-        <f>ROUND(60000/F68,2)</f>
-        <v>1363.64</v>
+        <f t="shared" si="15"/>
+        <v>101.69</v>
       </c>
       <c r="H68" s="5">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="I68" s="5">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="K68" s="5">
-        <v>720</v>
+        <f t="shared" si="17"/>
+        <v>305.07</v>
       </c>
       <c r="L68" s="2">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="M68" s="2">
         <v>1</v>
@@ -6037,414 +5862,268 @@
         <v>1</v>
       </c>
       <c r="S68" s="5">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="T68" s="5">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X68" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z68" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="18" customHeight="1">
-      <c r="A69" s="6"/>
-      <c r="B69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="2">
-        <v>2</v>
-      </c>
-      <c r="E69" s="5">
-        <v>80</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G69" s="2">
-        <v>500</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I69" s="5">
-        <f>I71*0.7</f>
-        <v>78.399999999999991</v>
-      </c>
-      <c r="J69" s="5">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="K69" s="5">
-        <f t="shared" ref="K69:K74" si="13">E69*J69+(J69-1)*G69</f>
-        <v>660</v>
-      </c>
-      <c r="L69" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="M69" s="2">
-        <v>1.125</v>
-      </c>
-      <c r="N69" s="2">
-        <v>1</v>
-      </c>
-      <c r="O69" s="2">
-        <v>1</v>
-      </c>
-      <c r="P69" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R69" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S69" s="5">
-        <v>10</v>
-      </c>
-      <c r="T69" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="U69" s="5">
-        <v>30</v>
-      </c>
-      <c r="V69" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="W69" s="5">
-        <v>50</v>
-      </c>
-      <c r="X69" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="Y69" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z69" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
     </row>
     <row r="70" spans="1:31" ht="18" customHeight="1">
-      <c r="A70" s="6"/>
-      <c r="B70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="2">
-        <v>2</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G70" s="2">
-        <v>501</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I70" s="5">
-        <f>I71*0.85</f>
-        <v>95.2</v>
-      </c>
-      <c r="J70" s="5">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="K70" s="5" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L70" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="M70" s="2">
-        <v>1.125</v>
-      </c>
-      <c r="N70" s="2">
-        <v>1</v>
-      </c>
-      <c r="O70" s="2">
-        <v>1</v>
-      </c>
-      <c r="P70" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R70" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="S70" s="5">
-        <v>10</v>
-      </c>
-      <c r="T70" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="U70" s="5">
-        <v>30</v>
-      </c>
-      <c r="V70" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="W70" s="5">
-        <v>50</v>
-      </c>
-      <c r="X70" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="Y70" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z70" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
+      <c r="A70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:31" ht="18" customHeight="1">
-      <c r="A71" s="6"/>
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D71" s="2">
         <v>2</v>
       </c>
       <c r="E71" s="5">
-        <v>540</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G71" s="10">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>35</v>
+      </c>
+      <c r="G71" s="2">
+        <f>ROUND(60000/F71,2)</f>
+        <v>1714.29</v>
       </c>
       <c r="H71" s="5">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="I71" s="5">
-        <v>112</v>
-      </c>
-      <c r="J71" s="10">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="K71" s="10">
-        <f t="shared" si="13"/>
-        <v>540</v>
-      </c>
-      <c r="L71" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="M71" s="5">
-        <v>1.125</v>
-      </c>
-      <c r="N71" s="5">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="J71" s="5">
+        <f t="shared" ref="J71:J80" si="18">ROUNDUP(100/I71,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K71" s="5">
+        <v>750</v>
+      </c>
+      <c r="L71" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0.85</v>
       </c>
       <c r="O71" s="2">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="P71" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="R71" s="5">
-        <v>0.9</v>
+        <v>0.85</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="R71" s="2">
+        <v>0.85</v>
       </c>
       <c r="S71" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T71" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="U71" s="5">
-        <v>30</v>
-      </c>
-      <c r="V71" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="W71" s="5">
-        <v>50</v>
-      </c>
-      <c r="X71" s="5">
         <v>0.7</v>
       </c>
+      <c r="U71" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V71" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="W71" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X71" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="Y71" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z71" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="10"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="72" spans="1:31" ht="18" customHeight="1">
-      <c r="A72" s="6"/>
+      <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D72" s="2">
         <v>2</v>
       </c>
       <c r="E72" s="5">
-        <v>80</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>48</v>
       </c>
       <c r="G72" s="2">
-        <v>500</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>109</v>
+        <f>ROUND(60000/F72,2)</f>
+        <v>1250</v>
+      </c>
+      <c r="H72" s="5">
+        <v>650</v>
       </c>
       <c r="I72" s="5">
-        <f>I74*0.7</f>
-        <v>78.399999999999991</v>
+        <v>72</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="13"/>
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="L72" s="2">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="M72" s="2">
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="N72" s="2">
         <v>1</v>
       </c>
       <c r="O72" s="2">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="P72" s="2">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="Q72" s="2">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="R72" s="2">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="S72" s="5">
-        <f>S69*1.3</f>
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="T72" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="U72" s="5">
-        <f>U69*1.3</f>
-        <v>39</v>
-      </c>
-      <c r="V72" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="W72" s="5">
-        <f>W69*1.3</f>
-        <v>65</v>
-      </c>
-      <c r="X72" s="5">
         <v>0.7</v>
       </c>
+      <c r="U72" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="W72" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X72" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="Y72" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z72" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="1:31" ht="18" customHeight="1">
-      <c r="A73" s="6"/>
+      <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D73" s="2">
         <v>2</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>109</v>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>56</v>
       </c>
       <c r="G73" s="2">
-        <v>501</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>109</v>
+        <f>ROUND(60000/F73,2)</f>
+        <v>1071.43</v>
+      </c>
+      <c r="H73" s="5">
+        <v>650</v>
       </c>
       <c r="I73" s="5">
-        <f>I74*0.85</f>
-        <v>95.2</v>
+        <v>74</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="K73" s="5" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+      <c r="K73" s="5">
+        <v>650</v>
       </c>
       <c r="L73" s="2">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="M73" s="2">
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="N73" s="2">
         <v>1</v>
@@ -6456,224 +6135,260 @@
         <v>1</v>
       </c>
       <c r="Q73" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R73" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S73" s="5">
-        <f t="shared" ref="S73:U74" si="14">S70*1.3</f>
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="T73" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="U73" s="5">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="V73" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="W73" s="5">
-        <f>W70*1.3</f>
-        <v>65</v>
-      </c>
-      <c r="X73" s="5">
         <v>0.7</v>
       </c>
+      <c r="U73" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V73" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="W73" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X73" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="Y73" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z73" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="74" spans="1:31" ht="18" customHeight="1">
-      <c r="A74" s="6"/>
+      <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D74" s="2">
         <v>2</v>
       </c>
       <c r="E74" s="5">
-        <v>460</v>
-      </c>
-      <c r="F74" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>44</v>
+      </c>
+      <c r="G74" s="2">
+        <f>ROUND(60000/F74,2)</f>
+        <v>1363.64</v>
+      </c>
+      <c r="H74" s="5">
+        <v>720</v>
+      </c>
+      <c r="I74" s="5">
+        <v>76</v>
+      </c>
+      <c r="J74" s="5">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="K74" s="5">
+        <v>720</v>
+      </c>
+      <c r="L74" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1</v>
+      </c>
+      <c r="N74" s="2">
+        <v>1</v>
+      </c>
+      <c r="O74" s="2">
+        <v>1</v>
+      </c>
+      <c r="P74" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>1</v>
+      </c>
+      <c r="R74" s="2">
+        <v>1</v>
+      </c>
+      <c r="S74" s="5">
+        <v>55</v>
+      </c>
+      <c r="T74" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="W74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z74" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" ht="18" customHeight="1">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+      <c r="E75" s="5">
+        <v>80</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G75" s="2">
+        <v>500</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I75" s="5">
+        <f>I77*0.7</f>
+        <v>78.399999999999991</v>
+      </c>
+      <c r="J75" s="5">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="K75" s="5">
+        <f t="shared" ref="K75:K80" si="19">E75*J75+(J75-1)*G75</f>
+        <v>660</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="N75" s="2">
+        <v>1</v>
+      </c>
+      <c r="O75" s="2">
+        <v>1</v>
+      </c>
+      <c r="P75" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="R75" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="S75" s="5">
+        <v>10</v>
+      </c>
+      <c r="T75" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U75" s="5">
+        <v>30</v>
+      </c>
+      <c r="V75" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W75" s="5">
+        <v>50</v>
+      </c>
+      <c r="X75" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y75" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z75" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+    </row>
+    <row r="76" spans="1:31" ht="18" customHeight="1">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G74" s="10">
-        <v>500</v>
-      </c>
-      <c r="H74" s="5">
-        <f>H71*1.3</f>
-        <v>390</v>
-      </c>
-      <c r="I74" s="5">
-        <v>112</v>
-      </c>
-      <c r="J74" s="10">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="K74" s="10">
-        <f t="shared" si="13"/>
-        <v>460</v>
-      </c>
-      <c r="L74" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="M74" s="5">
-        <v>1.125</v>
-      </c>
-      <c r="N74" s="5">
-        <v>1</v>
-      </c>
-      <c r="O74" s="2">
-        <v>1</v>
-      </c>
-      <c r="P74" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="R74" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="S74" s="5">
-        <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
-      <c r="T74" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="U74" s="5">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="V74" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="W74" s="5">
-        <f>W71*1.3</f>
-        <v>65</v>
-      </c>
-      <c r="X74" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="Y74" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z74" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="10"/>
-    </row>
-    <row r="75" spans="1:31" ht="18" customHeight="1">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="8"/>
-      <c r="AB75" s="8"/>
-      <c r="AC75" s="8"/>
-      <c r="AD75" s="8"/>
-      <c r="AE75" s="8"/>
-    </row>
-    <row r="76" spans="1:31" ht="18" customHeight="1">
-      <c r="A76" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="2">
         <v>2</v>
       </c>
-      <c r="E76" s="5">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2">
-        <v>373</v>
+      <c r="E76" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" ref="G76:G81" si="15">ROUND(60000/F76,2)</f>
-        <v>160.86000000000001</v>
-      </c>
-      <c r="H76" s="5">
-        <v>400</v>
+        <v>501</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="I76" s="5">
-        <v>35</v>
+        <f>I77*0.85</f>
+        <v>95.2</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" ref="J76:J81" si="16">ROUNDUP(100/I76,0)</f>
-        <v>3</v>
-      </c>
-      <c r="K76" s="5">
-        <f>E76+(J76-1)*G76</f>
-        <v>321.72000000000003</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="K76" s="5" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
       </c>
       <c r="L76" s="2">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="M76" s="2">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="N76" s="2">
         <v>1</v>
       </c>
       <c r="O76" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P76" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="R76" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="S76" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T76" s="5">
         <v>0.9</v>
@@ -6682,63 +6397,67 @@
         <v>30</v>
       </c>
       <c r="V76" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W76" s="5">
+        <v>50</v>
+      </c>
+      <c r="X76" s="5">
         <v>0.7</v>
       </c>
-      <c r="W76" s="5">
-        <v>40</v>
-      </c>
-      <c r="X76" s="5">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="Y76" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z76" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
     </row>
     <row r="77" spans="1:31" ht="18" customHeight="1">
-      <c r="A77" s="9"/>
+      <c r="A77" s="1"/>
       <c r="B77" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D77" s="2">
         <v>2</v>
       </c>
       <c r="E77" s="5">
-        <v>0</v>
-      </c>
-      <c r="F77" s="2">
-        <v>462</v>
-      </c>
-      <c r="G77" s="2">
-        <f t="shared" si="15"/>
-        <v>129.87</v>
+        <v>540</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G77" s="6">
+        <v>500</v>
       </c>
       <c r="H77" s="5">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I77" s="5">
-        <v>33</v>
-      </c>
-      <c r="J77" s="5">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="K77" s="5">
-        <f>E77+(J77-1)*G77</f>
-        <v>389.61</v>
-      </c>
-      <c r="L77" s="2">
+        <v>112</v>
+      </c>
+      <c r="J77" s="6">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="6">
+        <f t="shared" si="19"/>
+        <v>540</v>
+      </c>
+      <c r="L77" s="5">
         <v>1.9</v>
       </c>
-      <c r="M77" s="2">
-        <v>1</v>
-      </c>
-      <c r="N77" s="2">
+      <c r="M77" s="5">
+        <v>1.125</v>
+      </c>
+      <c r="N77" s="5">
         <v>1</v>
       </c>
       <c r="O77" s="2">
@@ -6747,77 +6466,80 @@
       <c r="P77" s="2">
         <v>1</v>
       </c>
-      <c r="Q77" s="2">
-        <v>1</v>
-      </c>
-      <c r="R77" s="2">
-        <v>1</v>
+      <c r="Q77" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="R77" s="5">
+        <v>0.9</v>
       </c>
       <c r="S77" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T77" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U77" s="5">
+        <v>30</v>
+      </c>
+      <c r="V77" s="5">
         <v>0.8</v>
       </c>
-      <c r="U77" s="5">
-        <v>25</v>
-      </c>
-      <c r="V77" s="5">
+      <c r="W77" s="5">
+        <v>50</v>
+      </c>
+      <c r="X77" s="5">
         <v>0.7</v>
       </c>
-      <c r="W77" s="5">
-        <v>35</v>
-      </c>
-      <c r="X77" s="5">
-        <v>0.6</v>
-      </c>
       <c r="Y77" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z77" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="6"/>
     </row>
     <row r="78" spans="1:31" ht="18" customHeight="1">
-      <c r="A78" s="9"/>
+      <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="5">
-        <v>0</v>
-      </c>
-      <c r="F78" s="2">
-        <v>1172</v>
+        <v>80</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="15"/>
-        <v>51.19</v>
-      </c>
-      <c r="H78" s="5">
-        <v>400</v>
+        <v>500</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="I78" s="5">
-        <v>14</v>
+        <f>I80*0.7</f>
+        <v>78.399999999999991</v>
       </c>
       <c r="J78" s="5">
-        <f t="shared" si="16"/>
-        <v>8</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="K78" s="5">
-        <f>E78+(J78-1)*G78</f>
-        <v>358.33</v>
+        <f t="shared" si="19"/>
+        <v>660</v>
       </c>
       <c r="L78" s="2">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="M78" s="2">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="N78" s="2">
         <v>1</v>
@@ -6829,76 +6551,84 @@
         <v>1</v>
       </c>
       <c r="Q78" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="R78" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S78" s="5">
-        <v>10</v>
+        <f>S75*1.3</f>
+        <v>13</v>
       </c>
       <c r="T78" s="5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="U78" s="5">
-        <v>20</v>
+        <f>U75*1.3</f>
+        <v>39</v>
       </c>
       <c r="V78" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W78" s="5">
+        <f>W75*1.3</f>
+        <v>65</v>
+      </c>
+      <c r="X78" s="5">
         <v>0.7</v>
       </c>
-      <c r="W78" s="5">
-        <v>30</v>
-      </c>
-      <c r="X78" s="5">
-        <v>0.6</v>
-      </c>
       <c r="Y78" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z78" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
     </row>
     <row r="79" spans="1:31" ht="18" customHeight="1">
-      <c r="A79" s="9"/>
+      <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="2">
         <v>2</v>
       </c>
-      <c r="E79" s="5">
-        <v>0</v>
-      </c>
-      <c r="F79" s="2">
-        <v>207</v>
+      <c r="E79" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="15"/>
-        <v>289.86</v>
-      </c>
-      <c r="H79" s="5">
-        <v>340</v>
+        <v>501</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="I79" s="5">
-        <v>50</v>
+        <f>I80*0.85</f>
+        <v>95.2</v>
       </c>
       <c r="J79" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="K79" s="5">
-        <f>E79+(J79-1)*G79</f>
-        <v>289.86</v>
+      <c r="K79" s="5" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
       </c>
       <c r="L79" s="2">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="M79" s="2">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="N79" s="2">
         <v>1</v>
@@ -6910,365 +6640,310 @@
         <v>1</v>
       </c>
       <c r="Q79" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="R79" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S79" s="5">
-        <v>20</v>
+        <f t="shared" ref="S79:U80" si="20">S76*1.3</f>
+        <v>13</v>
       </c>
       <c r="T79" s="5">
         <v>0.9</v>
       </c>
       <c r="U79" s="5">
-        <v>35</v>
+        <f t="shared" si="20"/>
+        <v>39</v>
       </c>
       <c r="V79" s="5">
         <v>0.8</v>
       </c>
       <c r="W79" s="5">
-        <v>50</v>
+        <f>W76*1.3</f>
+        <v>65</v>
       </c>
       <c r="X79" s="5">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Y79" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z79" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
     </row>
     <row r="80" spans="1:31" ht="18" customHeight="1">
-      <c r="A80" s="9"/>
+      <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="2">
         <v>2</v>
       </c>
       <c r="E80" s="5">
-        <v>100</v>
-      </c>
-      <c r="F80" s="2">
-        <v>182</v>
-      </c>
-      <c r="G80" s="2">
-        <f t="shared" si="15"/>
-        <v>329.67</v>
+        <v>460</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G80" s="6">
+        <v>500</v>
       </c>
       <c r="H80" s="5">
-        <v>340</v>
+        <f>H77*1.3</f>
+        <v>390</v>
       </c>
       <c r="I80" s="5">
-        <v>52</v>
-      </c>
-      <c r="J80" s="5">
-        <f t="shared" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="J80" s="6">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K80" s="6">
+        <f t="shared" si="19"/>
+        <v>460</v>
+      </c>
+      <c r="L80" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="M80" s="5">
+        <v>1.125</v>
+      </c>
+      <c r="N80" s="5">
+        <v>1</v>
+      </c>
+      <c r="O80" s="2">
+        <v>1</v>
+      </c>
+      <c r="P80" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="R80" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="S80" s="5">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="T80" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U80" s="5">
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="V80" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W80" s="5">
+        <f>W77*1.3</f>
+        <v>65</v>
+      </c>
+      <c r="X80" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y80" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z80" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="6"/>
+    </row>
+    <row r="81" spans="1:31" ht="18" customHeight="1">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="9"/>
+      <c r="AD81" s="9"/>
+      <c r="AE81" s="9"/>
+    </row>
+    <row r="82" spans="1:31" ht="18" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:31" ht="18" customHeight="1">
+      <c r="B83" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="2">
         <v>2</v>
-      </c>
-      <c r="K80" s="5">
-        <f>E80*J80+(J80-1)*G80</f>
-        <v>529.67000000000007</v>
-      </c>
-      <c r="L80" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="M80" s="2">
-        <v>1</v>
-      </c>
-      <c r="N80" s="2">
-        <v>1</v>
-      </c>
-      <c r="O80" s="2">
-        <v>1</v>
-      </c>
-      <c r="P80" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>1</v>
-      </c>
-      <c r="R80" s="2">
-        <v>1</v>
-      </c>
-      <c r="S80" s="5">
-        <v>35</v>
-      </c>
-      <c r="T80" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="U80" s="5">
-        <v>70</v>
-      </c>
-      <c r="V80" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="W80" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X80" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y80" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z80" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31" ht="18" customHeight="1">
-      <c r="A81" s="9"/>
-      <c r="B81" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" s="2">
-        <v>2</v>
-      </c>
-      <c r="E81" s="5">
-        <v>0</v>
-      </c>
-      <c r="F81" s="2">
-        <v>375</v>
-      </c>
-      <c r="G81" s="2">
-        <f t="shared" si="15"/>
-        <v>160</v>
-      </c>
-      <c r="H81" s="5">
-        <v>400</v>
-      </c>
-      <c r="I81" s="5">
-        <v>34</v>
-      </c>
-      <c r="J81" s="5">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="K81" s="5">
-        <f>E81+(J81-1)*G81</f>
-        <v>320</v>
-      </c>
-      <c r="L81" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="M81" s="2">
-        <v>1</v>
-      </c>
-      <c r="N81" s="2">
-        <v>1</v>
-      </c>
-      <c r="O81" s="2">
-        <v>1</v>
-      </c>
-      <c r="P81" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="R81" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S81" s="5">
-        <v>15</v>
-      </c>
-      <c r="T81" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="U81" s="5">
-        <v>25</v>
-      </c>
-      <c r="V81" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="W81" s="5">
-        <v>35</v>
-      </c>
-      <c r="X81" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Y81" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z81" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="1:31" ht="18" customHeight="1">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
-      <c r="X82" s="8"/>
-      <c r="Y82" s="8"/>
-      <c r="Z82" s="8"/>
-      <c r="AA82" s="8"/>
-      <c r="AB82" s="8"/>
-      <c r="AC82" s="8"/>
-      <c r="AD82" s="8"/>
-      <c r="AE82" s="8"/>
-    </row>
-    <row r="83" spans="1:31" ht="18" customHeight="1">
-      <c r="A83" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>126</v>
+      <c r="F83" s="2">
+        <v>373</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" ref="G83:G88" si="21">ROUND(60000/F83,2)</f>
+        <v>160.86000000000001</v>
       </c>
       <c r="H83" s="5">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="I83" s="5">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J83" s="5">
-        <f>ROUNDUP(100/I83,0)</f>
-        <v>4</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L83" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="M83" s="5">
-        <v>1</v>
-      </c>
-      <c r="N83" s="5">
-        <v>1</v>
-      </c>
-      <c r="O83" s="5">
-        <v>1</v>
-      </c>
-      <c r="P83" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="5">
-        <v>1</v>
-      </c>
-      <c r="R83" s="5">
-        <v>1</v>
+        <f t="shared" ref="J83:J88" si="22">ROUNDUP(100/I83,0)</f>
+        <v>3</v>
+      </c>
+      <c r="K83" s="5">
+        <f>E83+(J83-1)*G83</f>
+        <v>321.72000000000003</v>
+      </c>
+      <c r="L83" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M83" s="2">
+        <v>1</v>
+      </c>
+      <c r="N83" s="2">
+        <v>1</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R83" s="2">
+        <v>0.8</v>
       </c>
       <c r="S83" s="5">
+        <v>20</v>
+      </c>
+      <c r="T83" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U83" s="5">
         <v>30</v>
-      </c>
-      <c r="T83" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="U83" s="5">
-        <v>40</v>
       </c>
       <c r="V83" s="5">
         <v>0.7</v>
       </c>
       <c r="W83" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="X83" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="Y83" s="5">
-        <v>80</v>
-      </c>
-      <c r="Z83" s="5">
         <v>0.55000000000000004</v>
       </c>
+      <c r="Y83" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z83" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="84" spans="1:31" ht="18" customHeight="1">
-      <c r="A84" s="9"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>126</v>
+      <c r="F84" s="2">
+        <v>462</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="21"/>
+        <v>129.87</v>
       </c>
       <c r="H84" s="5">
         <v>400</v>
       </c>
       <c r="I84" s="5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J84" s="5">
-        <f>ROUNDUP(100/I84,0)</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K84" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L84" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="M84" s="5">
-        <v>1</v>
-      </c>
-      <c r="N84" s="5">
-        <v>1</v>
-      </c>
-      <c r="O84" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="P84" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="Q84" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="R84" s="5">
-        <v>0.8</v>
+      <c r="K84" s="5">
+        <f>E84+(J84-1)*G84</f>
+        <v>389.61</v>
+      </c>
+      <c r="L84" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="M84" s="2">
+        <v>1</v>
+      </c>
+      <c r="N84" s="2">
+        <v>1</v>
+      </c>
+      <c r="O84" s="2">
+        <v>1</v>
+      </c>
+      <c r="P84" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>1</v>
+      </c>
+      <c r="R84" s="2">
+        <v>1</v>
       </c>
       <c r="S84" s="5">
         <v>15</v>
@@ -7283,91 +6958,538 @@
         <v>0.7</v>
       </c>
       <c r="W84" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X84" s="5">
         <v>0.6</v>
       </c>
       <c r="Y84" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z84" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="18" customHeight="1">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1172</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="21"/>
+        <v>51.19</v>
+      </c>
+      <c r="H85" s="5">
+        <v>400</v>
+      </c>
+      <c r="I85" s="5">
+        <v>14</v>
+      </c>
+      <c r="J85" s="5">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="K85" s="5">
+        <f>E85+(J85-1)*G85</f>
+        <v>358.33</v>
+      </c>
+      <c r="L85" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="M85" s="2">
+        <v>1</v>
+      </c>
+      <c r="N85" s="2">
+        <v>1</v>
+      </c>
+      <c r="O85" s="2">
+        <v>1</v>
+      </c>
+      <c r="P85" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>1</v>
+      </c>
+      <c r="R85" s="2">
+        <v>1</v>
+      </c>
+      <c r="S85" s="5">
+        <v>10</v>
+      </c>
+      <c r="T85" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="U85" s="5">
+        <v>20</v>
+      </c>
+      <c r="V85" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W85" s="5">
+        <v>30</v>
+      </c>
+      <c r="X85" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y85" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z85" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="86" spans="1:31" ht="18" customHeight="1">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>207</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="21"/>
+        <v>289.86</v>
+      </c>
+      <c r="H86" s="5">
+        <v>340</v>
+      </c>
+      <c r="I86" s="5">
+        <v>50</v>
+      </c>
+      <c r="J86" s="5">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="K86" s="5">
+        <f>E86+(J86-1)*G86</f>
+        <v>289.86</v>
+      </c>
+      <c r="L86" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="M86" s="2">
+        <v>1</v>
+      </c>
+      <c r="N86" s="2">
+        <v>1</v>
+      </c>
+      <c r="O86" s="2">
+        <v>1</v>
+      </c>
+      <c r="P86" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>1</v>
+      </c>
+      <c r="R86" s="2">
+        <v>1</v>
+      </c>
+      <c r="S86" s="5">
+        <v>20</v>
+      </c>
+      <c r="T86" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U86" s="5">
+        <v>35</v>
+      </c>
+      <c r="V86" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W86" s="5">
+        <v>50</v>
+      </c>
+      <c r="X86" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y86" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z86" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="87" spans="1:31" ht="18" customHeight="1">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5">
+        <v>100</v>
+      </c>
+      <c r="F87" s="2">
+        <v>182</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="21"/>
+        <v>329.67</v>
+      </c>
+      <c r="H87" s="5">
+        <v>340</v>
+      </c>
+      <c r="I87" s="5">
+        <v>52</v>
+      </c>
+      <c r="J87" s="5">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="K87" s="5">
+        <f>E87*J87+(J87-1)*G87</f>
+        <v>529.67000000000007</v>
+      </c>
+      <c r="L87" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="M87" s="2">
+        <v>1</v>
+      </c>
+      <c r="N87" s="2">
+        <v>1</v>
+      </c>
+      <c r="O87" s="2">
+        <v>1</v>
+      </c>
+      <c r="P87" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>1</v>
+      </c>
+      <c r="R87" s="2">
+        <v>1</v>
+      </c>
+      <c r="S87" s="5">
+        <v>35</v>
+      </c>
+      <c r="T87" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U87" s="5">
+        <v>70</v>
+      </c>
+      <c r="V87" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W87" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X87" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y87" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z87" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="88" spans="1:31" ht="18" customHeight="1">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>375</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="21"/>
+        <v>160</v>
+      </c>
+      <c r="H88" s="5">
+        <v>400</v>
+      </c>
+      <c r="I88" s="5">
+        <v>34</v>
+      </c>
+      <c r="J88" s="5">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="K88" s="5">
+        <f>E88+(J88-1)*G88</f>
+        <v>320</v>
+      </c>
+      <c r="L88" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="M88" s="2">
+        <v>1</v>
+      </c>
+      <c r="N88" s="2">
+        <v>1</v>
+      </c>
+      <c r="O88" s="2">
+        <v>1</v>
+      </c>
+      <c r="P88" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R88" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S88" s="5">
+        <v>15</v>
+      </c>
+      <c r="T88" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U88" s="5">
+        <v>25</v>
+      </c>
+      <c r="V88" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W88" s="5">
+        <v>35</v>
+      </c>
+      <c r="X88" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y88" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z88" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="89" spans="1:31" ht="18" customHeight="1">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="9"/>
+      <c r="AA89" s="9"/>
+      <c r="AB89" s="9"/>
+      <c r="AC89" s="9"/>
+      <c r="AD89" s="9"/>
+      <c r="AE89" s="9"/>
     </row>
     <row r="90" spans="1:31" ht="18" customHeight="1">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G90" s="2"/>
+      <c r="A90" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:31" ht="18" customHeight="1">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H91" s="5">
+        <v>550</v>
+      </c>
+      <c r="I91" s="5">
+        <v>25</v>
+      </c>
+      <c r="J91" s="5">
+        <f>ROUNDUP(100/I91,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L91" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="M91" s="5">
+        <v>1</v>
+      </c>
+      <c r="N91" s="5">
+        <v>1</v>
+      </c>
+      <c r="O91" s="5">
+        <v>1</v>
+      </c>
+      <c r="P91" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="5">
+        <v>1</v>
+      </c>
+      <c r="R91" s="5">
+        <v>1</v>
+      </c>
+      <c r="S91" s="5">
+        <v>30</v>
+      </c>
+      <c r="T91" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="U91" s="5">
+        <v>40</v>
+      </c>
+      <c r="V91" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W91" s="5">
+        <v>60</v>
+      </c>
+      <c r="X91" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y91" s="5">
+        <v>80</v>
+      </c>
+      <c r="Z91" s="5">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="92" spans="1:31" ht="18" customHeight="1">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H92" s="5">
+        <v>400</v>
+      </c>
+      <c r="I92" s="5">
+        <v>25</v>
+      </c>
+      <c r="J92" s="5">
+        <f>ROUNDUP(100/I92,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L92" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="M92" s="5">
+        <v>1</v>
+      </c>
+      <c r="N92" s="5">
+        <v>1</v>
+      </c>
+      <c r="O92" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="P92" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Q92" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="R92" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S92" s="5">
+        <v>15</v>
+      </c>
+      <c r="T92" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U92" s="5">
+        <v>25</v>
+      </c>
+      <c r="V92" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W92" s="5">
+        <v>30</v>
+      </c>
+      <c r="X92" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Y92" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z92" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="93" spans="1:31" ht="18" customHeight="1">
       <c r="A93" s="2"/>
@@ -7420,7 +7542,9 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="F98" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:7" ht="18" customHeight="1">
@@ -8458,23 +8582,87 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
     </row>
+    <row r="214" spans="1:7" ht="18" customHeight="1">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="1:7" ht="18" customHeight="1">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="1:7" ht="18" customHeight="1">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="1:7" ht="18" customHeight="1">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="1:7" ht="18" customHeight="1">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="1:7" ht="18" customHeight="1">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="1:7" ht="18" customHeight="1">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="1:7" ht="18" customHeight="1">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:AE82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A52:AE52"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="A64:AE64"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="A75:AE75"/>
-    <mergeCell ref="A3:A24"/>
-    <mergeCell ref="A25:AE25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:AE43"/>
+  <mergeCells count="7">
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="A26:AE26"/>
+    <mergeCell ref="A40:AE40"/>
+    <mergeCell ref="A89:AE89"/>
+    <mergeCell ref="A55:AE55"/>
+    <mergeCell ref="A69:AE69"/>
+    <mergeCell ref="A81:AE81"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/战场伤害计算器/通用武器/S6战场武器.xlsx
+++ b/战场伤害计算器/通用武器/S6战场武器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\战场伤害计算器\通用武器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636243C6-FF4F-45B3-B442-8C70A721E350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F386074-BBC6-44D6-BBF3-799BB9B03D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{40E5A0C5-F1D4-4373-839B-1FD296B7D6C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="132">
   <si>
     <t>鉴于官方存在改内容不写入公告的行为，当游戏内数据与表格记录冲突时，以游戏内为准，并私聊我们更新表格数据</t>
   </si>
@@ -933,10 +933,10 @@
   <dimension ref="A1:AE221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S51" sqref="S51:Z51"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.77734375" defaultRowHeight="18" customHeight="1"/>
@@ -6110,11 +6110,11 @@
         <v>650</v>
       </c>
       <c r="I73" s="5">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J73" s="5">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73" s="5">
         <v>650</v>
@@ -6141,22 +6141,22 @@
         <v>1</v>
       </c>
       <c r="S73" s="5">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="T73" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="U73" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="V73" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="W73" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="X73" s="5" t="s">
-        <v>71</v>
+        <v>0.8</v>
+      </c>
+      <c r="U73" s="5">
+        <v>30</v>
+      </c>
+      <c r="V73" s="5">
+        <v>1</v>
+      </c>
+      <c r="W73" s="5">
+        <v>60</v>
+      </c>
+      <c r="X73" s="5">
+        <v>0.6</v>
       </c>
       <c r="Y73" s="5" t="s">
         <v>71</v>

--- a/战场伤害计算器/通用武器/S6战场武器.xlsx
+++ b/战场伤害计算器/通用武器/S6战场武器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\战场伤害计算器\通用武器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F386074-BBC6-44D6-BBF3-799BB9B03D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF22302-C121-4844-B99F-3B0F786BAA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{40E5A0C5-F1D4-4373-839B-1FD296B7D6C9}"/>
   </bookViews>
@@ -561,7 +561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,6 +594,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -933,10 +936,10 @@
   <dimension ref="A1:AE221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73:XFD73"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.77734375" defaultRowHeight="18" customHeight="1"/>
@@ -1066,7 +1069,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" ht="18" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2"/>
@@ -1174,7 +1177,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="18" customHeight="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1255,7 +1258,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="18" customHeight="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1336,7 +1339,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="18" customHeight="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1417,7 +1420,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="18" customHeight="1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1502,7 +1505,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="18" customHeight="1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1587,7 +1590,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" ht="18" customHeight="1">
-      <c r="A10" s="1"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1668,7 +1671,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="18" customHeight="1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
@@ -1749,7 +1752,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="18" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1830,7 +1833,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="18" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1911,7 +1914,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="18" customHeight="1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1992,7 +1995,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="18" customHeight="1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2073,7 +2076,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="18" customHeight="1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
@@ -2154,7 +2157,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="18" customHeight="1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
@@ -2235,7 +2238,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" ht="18" customHeight="1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2316,7 +2319,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="18" customHeight="1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
@@ -2397,7 +2400,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
@@ -2478,7 +2481,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
@@ -2559,7 +2562,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" ht="18" customHeight="1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
@@ -2640,7 +2643,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" ht="18" customHeight="1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
@@ -2721,7 +2724,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" ht="18" customHeight="1">
-      <c r="A24" s="1"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
@@ -2807,7 +2810,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="18" customHeight="1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
